--- a/项目实施计划.xlsx
+++ b/项目实施计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoxu/Desktop/课程内容/软件项目管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241CB7C2-DC80-5543-8E78-13D357C519C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ACA9FF-2D4D-944F-A996-3EAE3224140C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
   <si>
     <t>空气质量可视化系统实施计划</t>
   </si>
@@ -119,9 +119,6 @@
     <t>数据库创建与数据导入</t>
   </si>
   <si>
-    <t>编写中国地图各省的污染平均值接口</t>
-  </si>
-  <si>
     <t>编写中国地图展示页面</t>
   </si>
   <si>
@@ -131,28 +128,13 @@
     <t>赵睿睿</t>
   </si>
   <si>
-    <t>编写根据年份获取各个省的污染物平均值和根据省的名称获取城市污染数据接口</t>
-  </si>
-  <si>
-    <t>编写获取近六年省份污染物平均值和获取目标年城市污染物平均值接口</t>
-  </si>
-  <si>
     <t>编写根据省份和城市污染物可视化柱状图</t>
   </si>
   <si>
-    <t>编写获取近六年全国的前十个省的污染物数据和获取近六年全国的污染物平均值接口</t>
-  </si>
-  <si>
     <t>编写获取近六年全国的污染物动态排序柱状图</t>
   </si>
   <si>
-    <t>编写获取近六年某省份的前十名城市污染物数据和污染物平均数据接口</t>
-  </si>
-  <si>
     <t>编写获取近六年某省份的污染物饼图和折线图</t>
-  </si>
-  <si>
-    <t>编写各市详细展示页面，包括日历图、散点图</t>
   </si>
   <si>
     <t>Help</t>
@@ -1302,6 +1284,38 @@
   </si>
   <si>
     <t>检查系统各模块交互是否存在异常</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写获取近六年省份污染物平均值和获取目标年城市污染物平均值接口</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写获取近六年全国的前十个省的污染物数据和获取近六年全国的污染物平均值接口</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写获取近六年某省份的前十名城市污染物数据和污染物平均数据接口</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆仟龙，赵睿睿</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>许文杰，赵睿睿</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写中国地图各省的污染平均值接口</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写根据年份获取各个省的污染物平均值和根据省的名称获取城市污染数据接口</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写各市详细展示页面，包括日历图、散点图</t>
     <phoneticPr fontId="50" type="noConversion"/>
   </si>
 </sst>
@@ -1959,7 +1973,7 @@
     </xf>
     <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2151,9 +2165,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2278,6 +2289,15 @@
     <xf numFmtId="0" fontId="51" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2313,44 +2333,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2982,9 +2966,9 @@
   </sheetPr>
   <dimension ref="A1:BM50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14"/>
@@ -3011,25 +2995,25 @@
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="43"/>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="97"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
+      <c r="X1" s="96"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
     </row>
     <row r="2" spans="1:65" s="30" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="44"/>
@@ -3040,199 +3024,199 @@
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
-      <c r="X2" s="98"/>
+      <c r="X2" s="97"/>
     </row>
     <row r="3" spans="1:65" s="31" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="48"/>
       <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="124">
+      <c r="C3" s="126">
         <v>44994</v>
       </c>
-      <c r="D3" s="124"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="48"/>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="125"/>
+      <c r="G3" s="127"/>
       <c r="H3" s="50">
         <v>1</v>
       </c>
-      <c r="J3" s="116" t="str">
+      <c r="J3" s="118" t="str">
         <f>"第  "&amp;((J5-($C$3-WEEKDAY($C$3,1)+2))/7+1)&amp;"  周 "</f>
         <v xml:space="preserve">第  1  周 </v>
       </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="116" t="str">
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="118" t="str">
         <f t="shared" ref="Q3" si="0">"第  "&amp;((Q5-($C$3-WEEKDAY($C$3,1)+2))/7+1)&amp;"  周 "</f>
         <v xml:space="preserve">第  2  周 </v>
       </c>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="116" t="str">
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="118" t="str">
         <f t="shared" ref="X3" si="1">"第  "&amp;((X5-($C$3-WEEKDAY($C$3,1)+2))/7+1)&amp;"  周 "</f>
         <v xml:space="preserve">第  3  周 </v>
       </c>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="116" t="str">
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="118" t="str">
         <f t="shared" ref="AE3" si="2">"第  "&amp;((AE5-($C$3-WEEKDAY($C$3,1)+2))/7+1)&amp;"  周 "</f>
         <v xml:space="preserve">第  4  周 </v>
       </c>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="118"/>
-      <c r="AL3" s="116" t="str">
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="120"/>
+      <c r="AL3" s="118" t="str">
         <f t="shared" ref="AL3" si="3">"第  "&amp;((AL5-($C$3-WEEKDAY($C$3,1)+2))/7+1)&amp;"  周 "</f>
         <v xml:space="preserve">第  5  周 </v>
       </c>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="118"/>
-      <c r="AS3" s="116" t="str">
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="120"/>
+      <c r="AS3" s="118" t="str">
         <f t="shared" ref="AS3" si="4">"第  "&amp;((AS5-($C$3-WEEKDAY($C$3,1)+2))/7+1)&amp;"  周 "</f>
         <v xml:space="preserve">第  6  周 </v>
       </c>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="117"/>
-      <c r="AW3" s="117"/>
-      <c r="AX3" s="117"/>
-      <c r="AY3" s="118"/>
-      <c r="AZ3" s="116" t="str">
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="118" t="str">
         <f t="shared" ref="AZ3" si="5">"第  "&amp;((AZ5-($C$3-WEEKDAY($C$3,1)+2))/7+1)&amp;"  周 "</f>
         <v xml:space="preserve">第  7  周 </v>
       </c>
-      <c r="BA3" s="117"/>
-      <c r="BB3" s="117"/>
-      <c r="BC3" s="117"/>
-      <c r="BD3" s="117"/>
-      <c r="BE3" s="117"/>
-      <c r="BF3" s="118"/>
-      <c r="BG3" s="116" t="str">
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="119"/>
+      <c r="BD3" s="119"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="120"/>
+      <c r="BG3" s="118" t="str">
         <f t="shared" ref="BG3" si="6">"第  "&amp;((BG5-($C$3-WEEKDAY($C$3,1)+2))/7+1)&amp;"  周 "</f>
         <v xml:space="preserve">第  8  周 </v>
       </c>
-      <c r="BH3" s="117"/>
-      <c r="BI3" s="117"/>
-      <c r="BJ3" s="117"/>
-      <c r="BK3" s="117"/>
-      <c r="BL3" s="117"/>
-      <c r="BM3" s="118"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="119"/>
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="120"/>
     </row>
     <row r="4" spans="1:65" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="51"/>
       <c r="B4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="119"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
       <c r="H4" s="52"/>
-      <c r="J4" s="120">
+      <c r="J4" s="122">
         <f>J5</f>
         <v>44991</v>
       </c>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="120">
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="122">
         <f t="shared" ref="Q4" si="7">Q5</f>
         <v>44998</v>
       </c>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="120">
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="122">
         <f t="shared" ref="X4" si="8">X5</f>
         <v>45005</v>
       </c>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="120">
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="122">
         <f t="shared" ref="AE4" si="9">AE5</f>
         <v>45012</v>
       </c>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="120">
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="122">
         <f t="shared" ref="AL4" si="10">AL5</f>
         <v>45019</v>
       </c>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="120">
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="122">
         <f t="shared" ref="AS4" si="11">AS5</f>
         <v>45026</v>
       </c>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="121"/>
-      <c r="AX4" s="121"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="120">
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="122">
         <f>AZ5</f>
         <v>45033</v>
       </c>
-      <c r="BA4" s="121"/>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="121"/>
-      <c r="BE4" s="121"/>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="120">
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="124"/>
+      <c r="BG4" s="122">
         <f t="shared" ref="BG4" si="12">BG5</f>
         <v>45040</v>
       </c>
-      <c r="BH4" s="121"/>
-      <c r="BI4" s="121"/>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="121"/>
-      <c r="BL4" s="121"/>
-      <c r="BM4" s="122"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="123"/>
+      <c r="BL4" s="123"/>
+      <c r="BM4" s="124"/>
     </row>
     <row r="5" spans="1:65" s="33" customFormat="1" ht="14.25" customHeight="1">
       <c r="A5" s="53"/>
@@ -3243,227 +3227,227 @@
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
       <c r="H5" s="54"/>
-      <c r="J5" s="81">
+      <c r="J5" s="80">
         <f>C3-WEEKDAY(C3,1)+2+7*(H3-1)</f>
         <v>44991</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="81">
         <f t="shared" ref="K5:AP5" si="13">J5+1</f>
         <v>44992</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="82">
         <f t="shared" si="13"/>
         <v>44993</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="81">
         <f t="shared" si="13"/>
         <v>44994</v>
       </c>
-      <c r="N5" s="82">
+      <c r="N5" s="81">
         <f t="shared" si="13"/>
         <v>44995</v>
       </c>
-      <c r="O5" s="83">
+      <c r="O5" s="82">
         <f t="shared" si="13"/>
         <v>44996</v>
       </c>
-      <c r="P5" s="84">
+      <c r="P5" s="83">
         <f t="shared" si="13"/>
         <v>44997</v>
       </c>
-      <c r="Q5" s="81">
+      <c r="Q5" s="80">
         <f t="shared" si="13"/>
         <v>44998</v>
       </c>
-      <c r="R5" s="82">
+      <c r="R5" s="81">
         <f t="shared" si="13"/>
         <v>44999</v>
       </c>
-      <c r="S5" s="83">
+      <c r="S5" s="82">
         <f t="shared" si="13"/>
         <v>45000</v>
       </c>
-      <c r="T5" s="82">
+      <c r="T5" s="81">
         <f t="shared" ref="T5" si="14">S5+1</f>
         <v>45001</v>
       </c>
-      <c r="U5" s="82">
+      <c r="U5" s="81">
         <f t="shared" ref="U5" si="15">T5+1</f>
         <v>45002</v>
       </c>
-      <c r="V5" s="83">
+      <c r="V5" s="82">
         <f t="shared" ref="V5" si="16">U5+1</f>
         <v>45003</v>
       </c>
-      <c r="W5" s="84">
+      <c r="W5" s="83">
         <f t="shared" si="13"/>
         <v>45004</v>
       </c>
-      <c r="X5" s="84">
+      <c r="X5" s="83">
         <f t="shared" si="13"/>
         <v>45005</v>
       </c>
-      <c r="Y5" s="82">
+      <c r="Y5" s="81">
         <f t="shared" si="13"/>
         <v>45006</v>
       </c>
-      <c r="Z5" s="83">
+      <c r="Z5" s="82">
         <f t="shared" si="13"/>
         <v>45007</v>
       </c>
-      <c r="AA5" s="82">
+      <c r="AA5" s="81">
         <f t="shared" si="13"/>
         <v>45008</v>
       </c>
-      <c r="AB5" s="82">
+      <c r="AB5" s="81">
         <f t="shared" si="13"/>
         <v>45009</v>
       </c>
-      <c r="AC5" s="83">
+      <c r="AC5" s="82">
         <f t="shared" si="13"/>
         <v>45010</v>
       </c>
-      <c r="AD5" s="84">
+      <c r="AD5" s="83">
         <f t="shared" si="13"/>
         <v>45011</v>
       </c>
-      <c r="AE5" s="81">
+      <c r="AE5" s="80">
         <f t="shared" si="13"/>
         <v>45012</v>
       </c>
-      <c r="AF5" s="82">
+      <c r="AF5" s="81">
         <f t="shared" si="13"/>
         <v>45013</v>
       </c>
-      <c r="AG5" s="83">
+      <c r="AG5" s="82">
         <f t="shared" si="13"/>
         <v>45014</v>
       </c>
-      <c r="AH5" s="82">
+      <c r="AH5" s="81">
         <f t="shared" si="13"/>
         <v>45015</v>
       </c>
-      <c r="AI5" s="82">
+      <c r="AI5" s="81">
         <f t="shared" si="13"/>
         <v>45016</v>
       </c>
-      <c r="AJ5" s="83">
+      <c r="AJ5" s="82">
         <f t="shared" si="13"/>
         <v>45017</v>
       </c>
-      <c r="AK5" s="84">
+      <c r="AK5" s="83">
         <f t="shared" si="13"/>
         <v>45018</v>
       </c>
-      <c r="AL5" s="81">
+      <c r="AL5" s="80">
         <f t="shared" si="13"/>
         <v>45019</v>
       </c>
-      <c r="AM5" s="82">
+      <c r="AM5" s="81">
         <f t="shared" si="13"/>
         <v>45020</v>
       </c>
-      <c r="AN5" s="83">
+      <c r="AN5" s="82">
         <f t="shared" si="13"/>
         <v>45021</v>
       </c>
-      <c r="AO5" s="82">
+      <c r="AO5" s="81">
         <f t="shared" si="13"/>
         <v>45022</v>
       </c>
-      <c r="AP5" s="82">
+      <c r="AP5" s="81">
         <f t="shared" si="13"/>
         <v>45023</v>
       </c>
-      <c r="AQ5" s="83">
+      <c r="AQ5" s="82">
         <f t="shared" ref="AQ5:BM5" si="17">AP5+1</f>
         <v>45024</v>
       </c>
-      <c r="AR5" s="84">
+      <c r="AR5" s="83">
         <f t="shared" si="17"/>
         <v>45025</v>
       </c>
-      <c r="AS5" s="81">
+      <c r="AS5" s="80">
         <f t="shared" si="17"/>
         <v>45026</v>
       </c>
-      <c r="AT5" s="82">
+      <c r="AT5" s="81">
         <f t="shared" si="17"/>
         <v>45027</v>
       </c>
-      <c r="AU5" s="83">
+      <c r="AU5" s="82">
         <f t="shared" si="17"/>
         <v>45028</v>
       </c>
-      <c r="AV5" s="82">
+      <c r="AV5" s="81">
         <f t="shared" si="17"/>
         <v>45029</v>
       </c>
-      <c r="AW5" s="82">
+      <c r="AW5" s="81">
         <f t="shared" si="17"/>
         <v>45030</v>
       </c>
-      <c r="AX5" s="83">
+      <c r="AX5" s="82">
         <f t="shared" si="17"/>
         <v>45031</v>
       </c>
-      <c r="AY5" s="84">
+      <c r="AY5" s="83">
         <f t="shared" si="17"/>
         <v>45032</v>
       </c>
-      <c r="AZ5" s="81">
+      <c r="AZ5" s="80">
         <f t="shared" si="17"/>
         <v>45033</v>
       </c>
-      <c r="BA5" s="82">
+      <c r="BA5" s="81">
         <f t="shared" si="17"/>
         <v>45034</v>
       </c>
-      <c r="BB5" s="83">
+      <c r="BB5" s="82">
         <f t="shared" si="17"/>
         <v>45035</v>
       </c>
-      <c r="BC5" s="82">
+      <c r="BC5" s="81">
         <f t="shared" si="17"/>
         <v>45036</v>
       </c>
-      <c r="BD5" s="82">
+      <c r="BD5" s="81">
         <f t="shared" si="17"/>
         <v>45037</v>
       </c>
-      <c r="BE5" s="83">
+      <c r="BE5" s="82">
         <f t="shared" si="17"/>
         <v>45038</v>
       </c>
-      <c r="BF5" s="84">
+      <c r="BF5" s="83">
         <f t="shared" si="17"/>
         <v>45039</v>
       </c>
-      <c r="BG5" s="81">
+      <c r="BG5" s="80">
         <f t="shared" si="17"/>
         <v>45040</v>
       </c>
-      <c r="BH5" s="82">
+      <c r="BH5" s="81">
         <f t="shared" si="17"/>
         <v>45041</v>
       </c>
-      <c r="BI5" s="83">
+      <c r="BI5" s="82">
         <f t="shared" si="17"/>
         <v>45042</v>
       </c>
-      <c r="BJ5" s="82">
+      <c r="BJ5" s="81">
         <f t="shared" si="17"/>
         <v>45043</v>
       </c>
-      <c r="BK5" s="82">
+      <c r="BK5" s="81">
         <f t="shared" si="17"/>
         <v>45044</v>
       </c>
-      <c r="BL5" s="83">
+      <c r="BL5" s="82">
         <f t="shared" si="17"/>
         <v>45045</v>
       </c>
-      <c r="BM5" s="83">
+      <c r="BM5" s="82">
         <f t="shared" si="17"/>
         <v>45046</v>
       </c>
@@ -3484,234 +3468,234 @@
       <c r="E6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="139" t="s">
-        <v>128</v>
+      <c r="F6" s="117" t="s">
+        <v>122</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86" t="str">
+      <c r="I6" s="84"/>
+      <c r="J6" s="85" t="str">
         <f t="shared" ref="J6:AO6" si="18">CHOOSE(WEEKDAY(J5,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="K6" s="87" t="str">
+      <c r="K6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="L6" s="88" t="str">
+      <c r="L6" s="87" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
-      <c r="M6" s="87" t="str">
+      <c r="M6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="N6" s="87" t="str">
+      <c r="N6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>F</v>
       </c>
-      <c r="O6" s="88" t="str">
+      <c r="O6" s="87" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="P6" s="89" t="str">
+      <c r="P6" s="88" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="Q6" s="86" t="str">
+      <c r="Q6" s="85" t="str">
         <f t="shared" si="18"/>
         <v>M</v>
       </c>
-      <c r="R6" s="87" t="str">
+      <c r="R6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="S6" s="88" t="str">
+      <c r="S6" s="87" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
-      <c r="T6" s="87" t="str">
+      <c r="T6" s="86" t="str">
         <f t="shared" ref="T6:V6" si="19">CHOOSE(WEEKDAY(T5,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="U6" s="87" t="str">
+      <c r="U6" s="86" t="str">
         <f t="shared" si="19"/>
         <v>F</v>
       </c>
-      <c r="V6" s="88" t="str">
+      <c r="V6" s="87" t="str">
         <f t="shared" si="19"/>
         <v>S</v>
       </c>
-      <c r="W6" s="89" t="str">
+      <c r="W6" s="88" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="X6" s="89" t="str">
+      <c r="X6" s="88" t="str">
         <f t="shared" si="18"/>
         <v>M</v>
       </c>
-      <c r="Y6" s="87" t="str">
+      <c r="Y6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="Z6" s="88" t="str">
+      <c r="Z6" s="87" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
-      <c r="AA6" s="87" t="str">
+      <c r="AA6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="AB6" s="87" t="str">
+      <c r="AB6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>F</v>
       </c>
-      <c r="AC6" s="88" t="str">
+      <c r="AC6" s="87" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="89" t="str">
+      <c r="AD6" s="88" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="AE6" s="86" t="str">
+      <c r="AE6" s="85" t="str">
         <f t="shared" si="18"/>
         <v>M</v>
       </c>
-      <c r="AF6" s="87" t="str">
+      <c r="AF6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="AG6" s="88" t="str">
+      <c r="AG6" s="87" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
-      <c r="AH6" s="87" t="str">
+      <c r="AH6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="AI6" s="87" t="str">
+      <c r="AI6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>F</v>
       </c>
-      <c r="AJ6" s="88" t="str">
+      <c r="AJ6" s="87" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="89" t="str">
+      <c r="AK6" s="88" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="AL6" s="86" t="str">
+      <c r="AL6" s="85" t="str">
         <f t="shared" si="18"/>
         <v>M</v>
       </c>
-      <c r="AM6" s="87" t="str">
+      <c r="AM6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="AN6" s="88" t="str">
+      <c r="AN6" s="87" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
-      <c r="AO6" s="87" t="str">
+      <c r="AO6" s="86" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="AP6" s="87" t="str">
+      <c r="AP6" s="86" t="str">
         <f t="shared" ref="AP6:BM6" si="20">CHOOSE(WEEKDAY(AP5,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AQ6" s="88" t="str">
+      <c r="AQ6" s="87" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="89" t="str">
+      <c r="AR6" s="88" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
-      <c r="AS6" s="86" t="str">
+      <c r="AS6" s="85" t="str">
         <f t="shared" si="20"/>
         <v>M</v>
       </c>
-      <c r="AT6" s="87" t="str">
+      <c r="AT6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>T</v>
       </c>
-      <c r="AU6" s="88" t="str">
+      <c r="AU6" s="87" t="str">
         <f t="shared" si="20"/>
         <v>W</v>
       </c>
-      <c r="AV6" s="87" t="str">
+      <c r="AV6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>T</v>
       </c>
-      <c r="AW6" s="87" t="str">
+      <c r="AW6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>F</v>
       </c>
-      <c r="AX6" s="88" t="str">
+      <c r="AX6" s="87" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="89" t="str">
+      <c r="AY6" s="88" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
-      <c r="AZ6" s="86" t="str">
+      <c r="AZ6" s="85" t="str">
         <f t="shared" si="20"/>
         <v>M</v>
       </c>
-      <c r="BA6" s="87" t="str">
+      <c r="BA6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>T</v>
       </c>
-      <c r="BB6" s="88" t="str">
+      <c r="BB6" s="87" t="str">
         <f t="shared" si="20"/>
         <v>W</v>
       </c>
-      <c r="BC6" s="87" t="str">
+      <c r="BC6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>T</v>
       </c>
-      <c r="BD6" s="87" t="str">
+      <c r="BD6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>F</v>
       </c>
-      <c r="BE6" s="88" t="str">
+      <c r="BE6" s="87" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="89" t="str">
+      <c r="BF6" s="88" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
-      <c r="BG6" s="86" t="str">
+      <c r="BG6" s="85" t="str">
         <f t="shared" si="20"/>
         <v>M</v>
       </c>
-      <c r="BH6" s="87" t="str">
+      <c r="BH6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>T</v>
       </c>
-      <c r="BI6" s="88" t="str">
+      <c r="BI6" s="87" t="str">
         <f t="shared" si="20"/>
         <v>W</v>
       </c>
-      <c r="BJ6" s="87" t="str">
+      <c r="BJ6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>T</v>
       </c>
-      <c r="BK6" s="87" t="str">
+      <c r="BK6" s="86" t="str">
         <f t="shared" si="20"/>
         <v>F</v>
       </c>
-      <c r="BL6" s="88" t="str">
+      <c r="BL6" s="87" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
-      <c r="BM6" s="89" t="str">
+      <c r="BM6" s="88" t="str">
         <f t="shared" si="20"/>
         <v>S</v>
       </c>
@@ -3721,8 +3705,8 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B7" s="106" t="s">
-        <v>123</v>
+      <c r="B7" s="105" t="s">
+        <v>117</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="60"/>
@@ -3730,71 +3714,71 @@
       <c r="F7" s="61"/>
       <c r="G7" s="62"/>
       <c r="H7" s="63"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="91"/>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="91"/>
-      <c r="BK7" s="91"/>
-      <c r="BL7" s="91"/>
-      <c r="BM7" s="91"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
+      <c r="BJ7" s="90"/>
+      <c r="BK7" s="90"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="90"/>
     </row>
     <row r="8" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A8" s="64" t="str">
         <f t="shared" ref="A8:A9" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B8" s="104" t="s">
-        <v>127</v>
+      <c r="B8" s="103" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="66" t="s">
         <v>5</v>
@@ -3814,62 +3798,62 @@
       </c>
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="92"/>
-      <c r="BL8" s="92"/>
-      <c r="BM8" s="92"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="91"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="91"/>
+      <c r="AZ8" s="91"/>
+      <c r="BA8" s="91"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="91"/>
+      <c r="BG8" s="91"/>
+      <c r="BH8" s="91"/>
+      <c r="BI8" s="91"/>
+      <c r="BJ8" s="91"/>
+      <c r="BK8" s="91"/>
+      <c r="BL8" s="91"/>
+      <c r="BM8" s="91"/>
     </row>
     <row r="9" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A9" s="64" t="str">
@@ -3897,70 +3881,70 @@
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="92"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="92"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="92"/>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="92"/>
-      <c r="BE9" s="92"/>
-      <c r="BF9" s="92"/>
-      <c r="BG9" s="92"/>
-      <c r="BH9" s="92"/>
-      <c r="BI9" s="92"/>
-      <c r="BJ9" s="92"/>
-      <c r="BK9" s="92"/>
-      <c r="BL9" s="92"/>
-      <c r="BM9" s="92"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="91"/>
+      <c r="BH9" s="91"/>
+      <c r="BI9" s="91"/>
+      <c r="BJ9" s="91"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="91"/>
+      <c r="BM9" s="91"/>
     </row>
     <row r="10" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A10" s="72" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B10" s="105" t="s">
-        <v>122</v>
+      <c r="B10" s="104" t="s">
+        <v>116</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="67"/>
@@ -3968,63 +3952,63 @@
       <c r="F10" s="69"/>
       <c r="G10" s="70"/>
       <c r="H10" s="71"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="92"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="92"/>
-      <c r="BG10" s="92"/>
-      <c r="BH10" s="92"/>
-      <c r="BI10" s="92"/>
-      <c r="BJ10" s="92"/>
-      <c r="BK10" s="92"/>
-      <c r="BL10" s="92"/>
-      <c r="BM10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="91"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="91"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="91"/>
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="91"/>
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="91"/>
+      <c r="BM10" s="91"/>
     </row>
     <row r="11" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A11" s="64" t="str">
@@ -4052,62 +4036,62 @@
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="91"/>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="91"/>
+      <c r="BD11" s="91"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="91"/>
+      <c r="BG11" s="91"/>
+      <c r="BH11" s="91"/>
+      <c r="BI11" s="91"/>
+      <c r="BJ11" s="91"/>
+      <c r="BK11" s="91"/>
+      <c r="BL11" s="91"/>
+      <c r="BM11" s="91"/>
     </row>
     <row r="12" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A12" s="64" t="str">
@@ -4135,62 +4119,62 @@
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="92"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="92"/>
-      <c r="AV12" s="92"/>
-      <c r="AW12" s="92"/>
-      <c r="AX12" s="92"/>
-      <c r="AY12" s="92"/>
-      <c r="AZ12" s="92"/>
-      <c r="BA12" s="92"/>
-      <c r="BB12" s="92"/>
-      <c r="BC12" s="92"/>
-      <c r="BD12" s="92"/>
-      <c r="BE12" s="92"/>
-      <c r="BF12" s="92"/>
-      <c r="BG12" s="92"/>
-      <c r="BH12" s="92"/>
-      <c r="BI12" s="92"/>
-      <c r="BJ12" s="92"/>
-      <c r="BK12" s="92"/>
-      <c r="BL12" s="92"/>
-      <c r="BM12" s="92"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="91"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="91"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="91"/>
+      <c r="AO12" s="91"/>
+      <c r="AP12" s="91"/>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="91"/>
+      <c r="AZ12" s="91"/>
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="91"/>
+      <c r="BD12" s="91"/>
+      <c r="BE12" s="91"/>
+      <c r="BF12" s="91"/>
+      <c r="BG12" s="91"/>
+      <c r="BH12" s="91"/>
+      <c r="BI12" s="91"/>
+      <c r="BJ12" s="91"/>
+      <c r="BK12" s="91"/>
+      <c r="BL12" s="91"/>
+      <c r="BM12" s="91"/>
     </row>
     <row r="13" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A13" s="64" t="str">
@@ -4218,70 +4202,70 @@
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="92"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="92"/>
-      <c r="BJ13" s="92"/>
-      <c r="BK13" s="92"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="92"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="91"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="91"/>
+      <c r="BG13" s="91"/>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="91"/>
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="91"/>
+      <c r="BM13" s="91"/>
     </row>
     <row r="14" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A14" s="72" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B14" s="105" t="s">
-        <v>120</v>
+      <c r="B14" s="104" t="s">
+        <v>114</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="67"/>
@@ -4289,319 +4273,319 @@
       <c r="F14" s="69"/>
       <c r="G14" s="70"/>
       <c r="H14" s="71"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="92"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="92"/>
-      <c r="AN14" s="92"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="92"/>
-      <c r="AQ14" s="92"/>
-      <c r="AR14" s="92"/>
-      <c r="AS14" s="92"/>
-      <c r="AT14" s="92"/>
-      <c r="AU14" s="92"/>
-      <c r="AV14" s="92"/>
-      <c r="AW14" s="92"/>
-      <c r="AX14" s="92"/>
-      <c r="AY14" s="92"/>
-      <c r="AZ14" s="92"/>
-      <c r="BA14" s="92"/>
-      <c r="BB14" s="92"/>
-      <c r="BC14" s="92"/>
-      <c r="BD14" s="92"/>
-      <c r="BE14" s="92"/>
-      <c r="BF14" s="92"/>
-      <c r="BG14" s="92"/>
-      <c r="BH14" s="92"/>
-      <c r="BI14" s="92"/>
-      <c r="BJ14" s="92"/>
-      <c r="BK14" s="92"/>
-      <c r="BL14" s="92"/>
-      <c r="BM14" s="92"/>
-    </row>
-    <row r="15" spans="1:65" s="138" customFormat="1" ht="17">
-      <c r="A15" s="132" t="str">
+      <c r="I14" s="93"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="91"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="91"/>
+      <c r="BD14" s="91"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="91"/>
+      <c r="BG14" s="91"/>
+      <c r="BH14" s="91"/>
+      <c r="BI14" s="91"/>
+      <c r="BJ14" s="91"/>
+      <c r="BK14" s="91"/>
+      <c r="BL14" s="91"/>
+      <c r="BM14" s="91"/>
+    </row>
+    <row r="15" spans="1:65" s="36" customFormat="1" ht="17">
+      <c r="A15" s="64" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="135">
+      <c r="D15" s="67">
         <v>45001</v>
       </c>
       <c r="E15" s="68">
         <f t="shared" ref="E15:E17" si="22">IF(ISBLANK(D15)," - ",IF(F15=0,D15,D15+F15-1))</f>
         <v>45008</v>
       </c>
-      <c r="F15" s="136">
+      <c r="F15" s="69">
         <v>8</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
       </c>
-      <c r="H15" s="129"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="131"/>
-      <c r="AJ15" s="131"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="131"/>
-      <c r="AM15" s="131"/>
-      <c r="AN15" s="131"/>
-      <c r="AO15" s="131"/>
-      <c r="AP15" s="131"/>
-      <c r="AQ15" s="131"/>
-      <c r="AR15" s="131"/>
-      <c r="AS15" s="131"/>
-      <c r="AT15" s="131"/>
-      <c r="AU15" s="131"/>
-      <c r="AV15" s="131"/>
-      <c r="AW15" s="131"/>
-      <c r="AX15" s="131"/>
-      <c r="AY15" s="131"/>
-      <c r="AZ15" s="131"/>
-      <c r="BA15" s="131"/>
-      <c r="BB15" s="131"/>
-      <c r="BC15" s="131"/>
-      <c r="BD15" s="131"/>
-      <c r="BE15" s="131"/>
-      <c r="BF15" s="131"/>
-      <c r="BG15" s="131"/>
-      <c r="BH15" s="131"/>
-      <c r="BI15" s="131"/>
-      <c r="BJ15" s="131"/>
-      <c r="BK15" s="131"/>
-      <c r="BL15" s="131"/>
-      <c r="BM15" s="131"/>
-    </row>
-    <row r="16" spans="1:65" s="138" customFormat="1" ht="17">
-      <c r="A16" s="132" t="str">
+      <c r="H15" s="71"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="91"/>
+      <c r="AO15" s="91"/>
+      <c r="AP15" s="91"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="91"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="91"/>
+      <c r="BG15" s="91"/>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="91"/>
+    </row>
+    <row r="16" spans="1:65" s="36" customFormat="1" ht="17">
+      <c r="A16" s="64" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="135">
+      <c r="D16" s="67">
         <v>45008</v>
       </c>
       <c r="E16" s="68">
         <f t="shared" si="22"/>
         <v>45008</v>
       </c>
-      <c r="F16" s="136">
+      <c r="F16" s="69">
         <v>1</v>
       </c>
       <c r="G16" s="70">
         <v>1</v>
       </c>
-      <c r="H16" s="129"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="131"/>
-      <c r="AJ16" s="131"/>
-      <c r="AK16" s="131"/>
-      <c r="AL16" s="131"/>
-      <c r="AM16" s="131"/>
-      <c r="AN16" s="131"/>
-      <c r="AO16" s="131"/>
-      <c r="AP16" s="131"/>
-      <c r="AQ16" s="131"/>
-      <c r="AR16" s="131"/>
-      <c r="AS16" s="131"/>
-      <c r="AT16" s="131"/>
-      <c r="AU16" s="131"/>
-      <c r="AV16" s="131"/>
-      <c r="AW16" s="131"/>
-      <c r="AX16" s="131"/>
-      <c r="AY16" s="131"/>
-      <c r="AZ16" s="131"/>
-      <c r="BA16" s="131"/>
-      <c r="BB16" s="131"/>
-      <c r="BC16" s="131"/>
-      <c r="BD16" s="131"/>
-      <c r="BE16" s="131"/>
-      <c r="BF16" s="131"/>
-      <c r="BG16" s="131"/>
-      <c r="BH16" s="131"/>
-      <c r="BI16" s="131"/>
-      <c r="BJ16" s="131"/>
-      <c r="BK16" s="131"/>
-      <c r="BL16" s="131"/>
-      <c r="BM16" s="131"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="91"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="91"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="91"/>
+      <c r="BD16" s="91"/>
+      <c r="BE16" s="91"/>
+      <c r="BF16" s="91"/>
+      <c r="BG16" s="91"/>
+      <c r="BH16" s="91"/>
+      <c r="BI16" s="91"/>
+      <c r="BJ16" s="91"/>
+      <c r="BK16" s="91"/>
+      <c r="BL16" s="91"/>
+      <c r="BM16" s="91"/>
     </row>
     <row r="17" spans="1:65" s="36" customFormat="1" ht="17">
-      <c r="A17" s="107" t="str">
+      <c r="A17" s="106" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D17" s="109">
         <v>45009</v>
       </c>
-      <c r="E17" s="111">
+      <c r="E17" s="110">
         <f t="shared" si="22"/>
         <v>45015</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="111">
         <v>7</v>
       </c>
-      <c r="G17" s="113">
+      <c r="G17" s="112">
         <v>1</v>
       </c>
       <c r="H17" s="71"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="92"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="92"/>
-      <c r="AL17" s="92"/>
-      <c r="AM17" s="92"/>
-      <c r="AN17" s="92"/>
-      <c r="AO17" s="92"/>
-      <c r="AP17" s="92"/>
-      <c r="AQ17" s="92"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="92"/>
-      <c r="AT17" s="92"/>
-      <c r="AU17" s="92"/>
-      <c r="AV17" s="92"/>
-      <c r="AW17" s="92"/>
-      <c r="AX17" s="92"/>
-      <c r="AY17" s="92"/>
-      <c r="AZ17" s="92"/>
-      <c r="BA17" s="92"/>
-      <c r="BB17" s="92"/>
-      <c r="BC17" s="92"/>
-      <c r="BD17" s="92"/>
-      <c r="BE17" s="92"/>
-      <c r="BF17" s="92"/>
-      <c r="BG17" s="92"/>
-      <c r="BH17" s="92"/>
-      <c r="BI17" s="92"/>
-      <c r="BJ17" s="92"/>
-      <c r="BK17" s="92"/>
-      <c r="BL17" s="92"/>
-      <c r="BM17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="91"/>
+      <c r="AJ17" s="91"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="91"/>
+      <c r="AN17" s="91"/>
+      <c r="AO17" s="91"/>
+      <c r="AP17" s="91"/>
+      <c r="AQ17" s="91"/>
+      <c r="AR17" s="91"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="91"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="91"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="91"/>
+      <c r="BG17" s="91"/>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="91"/>
+      <c r="BJ17" s="91"/>
+      <c r="BK17" s="91"/>
+      <c r="BL17" s="91"/>
+      <c r="BM17" s="91"/>
     </row>
     <row r="18" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A18" s="72" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B18" s="105" t="s">
-        <v>124</v>
+      <c r="B18" s="104" t="s">
+        <v>118</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
@@ -4609,63 +4593,63 @@
       <c r="F18" s="69"/>
       <c r="G18" s="70"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="92"/>
-      <c r="AN18" s="92"/>
-      <c r="AO18" s="92"/>
-      <c r="AP18" s="92"/>
-      <c r="AQ18" s="92"/>
-      <c r="AR18" s="92"/>
-      <c r="AS18" s="92"/>
-      <c r="AT18" s="92"/>
-      <c r="AU18" s="92"/>
-      <c r="AV18" s="92"/>
-      <c r="AW18" s="92"/>
-      <c r="AX18" s="92"/>
-      <c r="AY18" s="92"/>
-      <c r="AZ18" s="92"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="92"/>
-      <c r="BC18" s="92"/>
-      <c r="BD18" s="92"/>
-      <c r="BE18" s="92"/>
-      <c r="BF18" s="92"/>
-      <c r="BG18" s="92"/>
-      <c r="BH18" s="92"/>
-      <c r="BI18" s="92"/>
-      <c r="BJ18" s="92"/>
-      <c r="BK18" s="92"/>
-      <c r="BL18" s="92"/>
-      <c r="BM18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="91"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="91"/>
+      <c r="AL18" s="91"/>
+      <c r="AM18" s="91"/>
+      <c r="AN18" s="91"/>
+      <c r="AO18" s="91"/>
+      <c r="AP18" s="91"/>
+      <c r="AQ18" s="91"/>
+      <c r="AR18" s="91"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91"/>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="91"/>
+      <c r="BA18" s="91"/>
+      <c r="BB18" s="91"/>
+      <c r="BC18" s="91"/>
+      <c r="BD18" s="91"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="91"/>
+      <c r="BG18" s="91"/>
+      <c r="BH18" s="91"/>
+      <c r="BI18" s="91"/>
+      <c r="BJ18" s="91"/>
+      <c r="BK18" s="91"/>
+      <c r="BL18" s="91"/>
+      <c r="BM18" s="91"/>
     </row>
     <row r="19" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A19" s="64" t="str">
@@ -4689,66 +4673,66 @@
         <v>6</v>
       </c>
       <c r="G19" s="70">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="92"/>
-      <c r="AN19" s="92"/>
-      <c r="AO19" s="92"/>
-      <c r="AP19" s="92"/>
-      <c r="AQ19" s="92"/>
-      <c r="AR19" s="92"/>
-      <c r="AS19" s="92"/>
-      <c r="AT19" s="92"/>
-      <c r="AU19" s="92"/>
-      <c r="AV19" s="92"/>
-      <c r="AW19" s="92"/>
-      <c r="AX19" s="92"/>
-      <c r="AY19" s="92"/>
-      <c r="AZ19" s="92"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="92"/>
-      <c r="BC19" s="92"/>
-      <c r="BD19" s="92"/>
-      <c r="BE19" s="92"/>
-      <c r="BF19" s="92"/>
-      <c r="BG19" s="92"/>
-      <c r="BH19" s="92"/>
-      <c r="BI19" s="92"/>
-      <c r="BJ19" s="92"/>
-      <c r="BK19" s="92"/>
-      <c r="BL19" s="92"/>
-      <c r="BM19" s="92"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="91"/>
+      <c r="AN19" s="91"/>
+      <c r="AO19" s="91"/>
+      <c r="AP19" s="91"/>
+      <c r="AQ19" s="91"/>
+      <c r="AR19" s="91"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="91"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="91"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="91"/>
+      <c r="BG19" s="91"/>
+      <c r="BH19" s="91"/>
+      <c r="BI19" s="91"/>
+      <c r="BJ19" s="91"/>
+      <c r="BK19" s="91"/>
+      <c r="BL19" s="91"/>
+      <c r="BM19" s="91"/>
     </row>
     <row r="20" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A20" s="64" t="str">
@@ -4772,66 +4756,66 @@
         <v>2</v>
       </c>
       <c r="G20" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="92"/>
-      <c r="AO20" s="92"/>
-      <c r="AP20" s="92"/>
-      <c r="AQ20" s="92"/>
-      <c r="AR20" s="92"/>
-      <c r="AS20" s="92"/>
-      <c r="AT20" s="92"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="92"/>
-      <c r="AW20" s="92"/>
-      <c r="AX20" s="92"/>
-      <c r="AY20" s="92"/>
-      <c r="AZ20" s="92"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="92"/>
-      <c r="BC20" s="92"/>
-      <c r="BD20" s="92"/>
-      <c r="BE20" s="92"/>
-      <c r="BF20" s="92"/>
-      <c r="BG20" s="92"/>
-      <c r="BH20" s="92"/>
-      <c r="BI20" s="92"/>
-      <c r="BJ20" s="92"/>
-      <c r="BK20" s="92"/>
-      <c r="BL20" s="92"/>
-      <c r="BM20" s="92"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="91"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="91"/>
+      <c r="AN20" s="91"/>
+      <c r="AO20" s="91"/>
+      <c r="AP20" s="91"/>
+      <c r="AQ20" s="91"/>
+      <c r="AR20" s="91"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="91"/>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="91"/>
+      <c r="BA20" s="91"/>
+      <c r="BB20" s="91"/>
+      <c r="BC20" s="91"/>
+      <c r="BD20" s="91"/>
+      <c r="BE20" s="91"/>
+      <c r="BF20" s="91"/>
+      <c r="BG20" s="91"/>
+      <c r="BH20" s="91"/>
+      <c r="BI20" s="91"/>
+      <c r="BJ20" s="91"/>
+      <c r="BK20" s="91"/>
+      <c r="BL20" s="91"/>
+      <c r="BM20" s="91"/>
     </row>
     <row r="21" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A21" s="64" t="str">
@@ -4855,74 +4839,74 @@
         <v>3</v>
       </c>
       <c r="G21" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="92"/>
-      <c r="AN21" s="92"/>
-      <c r="AO21" s="92"/>
-      <c r="AP21" s="92"/>
-      <c r="AQ21" s="92"/>
-      <c r="AR21" s="92"/>
-      <c r="AS21" s="92"/>
-      <c r="AT21" s="92"/>
-      <c r="AU21" s="92"/>
-      <c r="AV21" s="92"/>
-      <c r="AW21" s="92"/>
-      <c r="AX21" s="92"/>
-      <c r="AY21" s="92"/>
-      <c r="AZ21" s="92"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="92"/>
-      <c r="BC21" s="92"/>
-      <c r="BD21" s="92"/>
-      <c r="BE21" s="92"/>
-      <c r="BF21" s="92"/>
-      <c r="BG21" s="92"/>
-      <c r="BH21" s="92"/>
-      <c r="BI21" s="92"/>
-      <c r="BJ21" s="92"/>
-      <c r="BK21" s="92"/>
-      <c r="BL21" s="92"/>
-      <c r="BM21" s="92"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91"/>
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="91"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="91"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="91"/>
+      <c r="AN21" s="91"/>
+      <c r="AO21" s="91"/>
+      <c r="AP21" s="91"/>
+      <c r="AQ21" s="91"/>
+      <c r="AR21" s="91"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91"/>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="91"/>
+      <c r="BA21" s="91"/>
+      <c r="BB21" s="91"/>
+      <c r="BC21" s="91"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="91"/>
+      <c r="BF21" s="91"/>
+      <c r="BG21" s="91"/>
+      <c r="BH21" s="91"/>
+      <c r="BI21" s="91"/>
+      <c r="BJ21" s="91"/>
+      <c r="BK21" s="91"/>
+      <c r="BL21" s="91"/>
+      <c r="BM21" s="91"/>
     </row>
     <row r="22" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A22" s="72" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B22" s="105" t="s">
-        <v>125</v>
+      <c r="B22" s="104" t="s">
+        <v>119</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="67"/>
@@ -4930,74 +4914,74 @@
       <c r="F22" s="69"/>
       <c r="G22" s="70"/>
       <c r="H22" s="71"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="92"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="92"/>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="92"/>
-      <c r="AN22" s="92"/>
-      <c r="AO22" s="92"/>
-      <c r="AP22" s="92"/>
-      <c r="AQ22" s="92"/>
-      <c r="AR22" s="92"/>
-      <c r="AS22" s="92"/>
-      <c r="AT22" s="92"/>
-      <c r="AU22" s="92"/>
-      <c r="AV22" s="92"/>
-      <c r="AW22" s="92"/>
-      <c r="AX22" s="92"/>
-      <c r="AY22" s="92"/>
-      <c r="AZ22" s="92"/>
-      <c r="BA22" s="92"/>
-      <c r="BB22" s="92"/>
-      <c r="BC22" s="92"/>
-      <c r="BD22" s="92"/>
-      <c r="BE22" s="92"/>
-      <c r="BF22" s="92"/>
-      <c r="BG22" s="92"/>
-      <c r="BH22" s="92"/>
-      <c r="BI22" s="92"/>
-      <c r="BJ22" s="92"/>
-      <c r="BK22" s="92"/>
-      <c r="BL22" s="92"/>
-      <c r="BM22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="91"/>
+      <c r="AE22" s="91"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="91"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="91"/>
+      <c r="AJ22" s="91"/>
+      <c r="AK22" s="91"/>
+      <c r="AL22" s="91"/>
+      <c r="AM22" s="91"/>
+      <c r="AN22" s="91"/>
+      <c r="AO22" s="91"/>
+      <c r="AP22" s="91"/>
+      <c r="AQ22" s="91"/>
+      <c r="AR22" s="91"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="91"/>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="91"/>
+      <c r="AY22" s="91"/>
+      <c r="AZ22" s="91"/>
+      <c r="BA22" s="91"/>
+      <c r="BB22" s="91"/>
+      <c r="BC22" s="91"/>
+      <c r="BD22" s="91"/>
+      <c r="BE22" s="91"/>
+      <c r="BF22" s="91"/>
+      <c r="BG22" s="91"/>
+      <c r="BH22" s="91"/>
+      <c r="BI22" s="91"/>
+      <c r="BJ22" s="91"/>
+      <c r="BK22" s="91"/>
+      <c r="BL22" s="91"/>
+      <c r="BM22" s="91"/>
     </row>
     <row r="23" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A23" s="64" t="str">
         <f t="shared" ref="A23:A42" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
-      <c r="B23" s="104" t="s">
-        <v>113</v>
+      <c r="B23" s="103" t="s">
+        <v>107</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="67">
         <v>45020</v>
@@ -5010,66 +4994,66 @@
         <v>12</v>
       </c>
       <c r="G23" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="71"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="92"/>
-      <c r="AN23" s="92"/>
-      <c r="AO23" s="92"/>
-      <c r="AP23" s="92"/>
-      <c r="AQ23" s="92"/>
-      <c r="AR23" s="92"/>
-      <c r="AS23" s="92"/>
-      <c r="AT23" s="92"/>
-      <c r="AU23" s="92"/>
-      <c r="AV23" s="92"/>
-      <c r="AW23" s="92"/>
-      <c r="AX23" s="92"/>
-      <c r="AY23" s="92"/>
-      <c r="AZ23" s="92"/>
-      <c r="BA23" s="92"/>
-      <c r="BB23" s="92"/>
-      <c r="BC23" s="92"/>
-      <c r="BD23" s="92"/>
-      <c r="BE23" s="92"/>
-      <c r="BF23" s="92"/>
-      <c r="BG23" s="92"/>
-      <c r="BH23" s="92"/>
-      <c r="BI23" s="92"/>
-      <c r="BJ23" s="92"/>
-      <c r="BK23" s="92"/>
-      <c r="BL23" s="92"/>
-      <c r="BM23" s="92"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="91"/>
+      <c r="AE23" s="91"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="91"/>
+      <c r="AH23" s="91"/>
+      <c r="AI23" s="91"/>
+      <c r="AJ23" s="91"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="91"/>
+      <c r="AM23" s="91"/>
+      <c r="AN23" s="91"/>
+      <c r="AO23" s="91"/>
+      <c r="AP23" s="91"/>
+      <c r="AQ23" s="91"/>
+      <c r="AR23" s="91"/>
+      <c r="AS23" s="91"/>
+      <c r="AT23" s="91"/>
+      <c r="AU23" s="91"/>
+      <c r="AV23" s="91"/>
+      <c r="AW23" s="91"/>
+      <c r="AX23" s="91"/>
+      <c r="AY23" s="91"/>
+      <c r="AZ23" s="91"/>
+      <c r="BA23" s="91"/>
+      <c r="BB23" s="91"/>
+      <c r="BC23" s="91"/>
+      <c r="BD23" s="91"/>
+      <c r="BE23" s="91"/>
+      <c r="BF23" s="91"/>
+      <c r="BG23" s="91"/>
+      <c r="BH23" s="91"/>
+      <c r="BI23" s="91"/>
+      <c r="BJ23" s="91"/>
+      <c r="BK23" s="91"/>
+      <c r="BL23" s="91"/>
+      <c r="BM23" s="91"/>
     </row>
     <row r="24" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A24" s="64" t="str">
@@ -5093,66 +5077,66 @@
         <v>8</v>
       </c>
       <c r="G24" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="92"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="92"/>
-      <c r="BA24" s="92"/>
-      <c r="BB24" s="92"/>
-      <c r="BC24" s="92"/>
-      <c r="BD24" s="92"/>
-      <c r="BE24" s="92"/>
-      <c r="BF24" s="92"/>
-      <c r="BG24" s="92"/>
-      <c r="BH24" s="92"/>
-      <c r="BI24" s="92"/>
-      <c r="BJ24" s="92"/>
-      <c r="BK24" s="92"/>
-      <c r="BL24" s="92"/>
-      <c r="BM24" s="92"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="91"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="91"/>
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="91"/>
+      <c r="AJ24" s="91"/>
+      <c r="AK24" s="91"/>
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="91"/>
+      <c r="AN24" s="91"/>
+      <c r="AO24" s="91"/>
+      <c r="AP24" s="91"/>
+      <c r="AQ24" s="91"/>
+      <c r="AR24" s="91"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="91"/>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="91"/>
+      <c r="AY24" s="91"/>
+      <c r="AZ24" s="91"/>
+      <c r="BA24" s="91"/>
+      <c r="BB24" s="91"/>
+      <c r="BC24" s="91"/>
+      <c r="BD24" s="91"/>
+      <c r="BE24" s="91"/>
+      <c r="BF24" s="91"/>
+      <c r="BG24" s="91"/>
+      <c r="BH24" s="91"/>
+      <c r="BI24" s="91"/>
+      <c r="BJ24" s="91"/>
+      <c r="BK24" s="91"/>
+      <c r="BL24" s="91"/>
+      <c r="BM24" s="91"/>
     </row>
     <row r="25" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A25" s="64" t="str">
@@ -5176,74 +5160,74 @@
         <v>4</v>
       </c>
       <c r="G25" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="92"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="92"/>
-      <c r="AL25" s="92"/>
-      <c r="AM25" s="92"/>
-      <c r="AN25" s="92"/>
-      <c r="AO25" s="92"/>
-      <c r="AP25" s="92"/>
-      <c r="AQ25" s="92"/>
-      <c r="AR25" s="92"/>
-      <c r="AS25" s="92"/>
-      <c r="AT25" s="92"/>
-      <c r="AU25" s="92"/>
-      <c r="AV25" s="92"/>
-      <c r="AW25" s="92"/>
-      <c r="AX25" s="92"/>
-      <c r="AY25" s="92"/>
-      <c r="AZ25" s="92"/>
-      <c r="BA25" s="92"/>
-      <c r="BB25" s="92"/>
-      <c r="BC25" s="92"/>
-      <c r="BD25" s="92"/>
-      <c r="BE25" s="92"/>
-      <c r="BF25" s="92"/>
-      <c r="BG25" s="92"/>
-      <c r="BH25" s="92"/>
-      <c r="BI25" s="92"/>
-      <c r="BJ25" s="92"/>
-      <c r="BK25" s="92"/>
-      <c r="BL25" s="92"/>
-      <c r="BM25" s="92"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="91"/>
+      <c r="AE25" s="91"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="91"/>
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="91"/>
+      <c r="AJ25" s="91"/>
+      <c r="AK25" s="91"/>
+      <c r="AL25" s="91"/>
+      <c r="AM25" s="91"/>
+      <c r="AN25" s="91"/>
+      <c r="AO25" s="91"/>
+      <c r="AP25" s="91"/>
+      <c r="AQ25" s="91"/>
+      <c r="AR25" s="91"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="91"/>
+      <c r="AU25" s="91"/>
+      <c r="AV25" s="91"/>
+      <c r="AW25" s="91"/>
+      <c r="AX25" s="91"/>
+      <c r="AY25" s="91"/>
+      <c r="AZ25" s="91"/>
+      <c r="BA25" s="91"/>
+      <c r="BB25" s="91"/>
+      <c r="BC25" s="91"/>
+      <c r="BD25" s="91"/>
+      <c r="BE25" s="91"/>
+      <c r="BF25" s="91"/>
+      <c r="BG25" s="91"/>
+      <c r="BH25" s="91"/>
+      <c r="BI25" s="91"/>
+      <c r="BJ25" s="91"/>
+      <c r="BK25" s="91"/>
+      <c r="BL25" s="91"/>
+      <c r="BM25" s="91"/>
     </row>
     <row r="26" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A26" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.4</v>
       </c>
-      <c r="B26" s="65" t="s">
-        <v>25</v>
+      <c r="B26" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>5</v>
@@ -5259,66 +5243,66 @@
         <v>5</v>
       </c>
       <c r="G26" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="92"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="92"/>
-      <c r="AK26" s="92"/>
-      <c r="AL26" s="92"/>
-      <c r="AM26" s="92"/>
-      <c r="AN26" s="92"/>
-      <c r="AO26" s="92"/>
-      <c r="AP26" s="92"/>
-      <c r="AQ26" s="92"/>
-      <c r="AR26" s="92"/>
-      <c r="AS26" s="92"/>
-      <c r="AT26" s="92"/>
-      <c r="AU26" s="92"/>
-      <c r="AV26" s="92"/>
-      <c r="AW26" s="92"/>
-      <c r="AX26" s="92"/>
-      <c r="AY26" s="92"/>
-      <c r="AZ26" s="92"/>
-      <c r="BA26" s="92"/>
-      <c r="BB26" s="92"/>
-      <c r="BC26" s="92"/>
-      <c r="BD26" s="92"/>
-      <c r="BE26" s="92"/>
-      <c r="BF26" s="92"/>
-      <c r="BG26" s="92"/>
-      <c r="BH26" s="92"/>
-      <c r="BI26" s="92"/>
-      <c r="BJ26" s="92"/>
-      <c r="BK26" s="92"/>
-      <c r="BL26" s="92"/>
-      <c r="BM26" s="92"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="91"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="91"/>
+      <c r="AH26" s="91"/>
+      <c r="AI26" s="91"/>
+      <c r="AJ26" s="91"/>
+      <c r="AK26" s="91"/>
+      <c r="AL26" s="91"/>
+      <c r="AM26" s="91"/>
+      <c r="AN26" s="91"/>
+      <c r="AO26" s="91"/>
+      <c r="AP26" s="91"/>
+      <c r="AQ26" s="91"/>
+      <c r="AR26" s="91"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="91"/>
+      <c r="AZ26" s="91"/>
+      <c r="BA26" s="91"/>
+      <c r="BB26" s="91"/>
+      <c r="BC26" s="91"/>
+      <c r="BD26" s="91"/>
+      <c r="BE26" s="91"/>
+      <c r="BF26" s="91"/>
+      <c r="BG26" s="91"/>
+      <c r="BH26" s="91"/>
+      <c r="BI26" s="91"/>
+      <c r="BJ26" s="91"/>
+      <c r="BK26" s="91"/>
+      <c r="BL26" s="91"/>
+      <c r="BM26" s="91"/>
     </row>
     <row r="27" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A27" s="64" t="str">
@@ -5326,10 +5310,10 @@
         <v>5.5</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>127</v>
       </c>
       <c r="D27" s="67">
         <v>45032</v>
@@ -5342,77 +5326,77 @@
         <v>5</v>
       </c>
       <c r="G27" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="99"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="92"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="92"/>
-      <c r="AK27" s="92"/>
-      <c r="AL27" s="92"/>
-      <c r="AM27" s="92"/>
-      <c r="AN27" s="92"/>
-      <c r="AO27" s="92"/>
-      <c r="AP27" s="92"/>
-      <c r="AQ27" s="92"/>
-      <c r="AR27" s="92"/>
-      <c r="AS27" s="92"/>
-      <c r="AT27" s="92"/>
-      <c r="AU27" s="92"/>
-      <c r="AV27" s="92"/>
-      <c r="AW27" s="92"/>
-      <c r="AX27" s="92"/>
-      <c r="AY27" s="92"/>
-      <c r="AZ27" s="92"/>
-      <c r="BA27" s="92"/>
-      <c r="BB27" s="92"/>
-      <c r="BC27" s="92"/>
-      <c r="BD27" s="92"/>
-      <c r="BE27" s="92"/>
-      <c r="BF27" s="92"/>
-      <c r="BG27" s="92"/>
-      <c r="BH27" s="92"/>
-      <c r="BI27" s="92"/>
-      <c r="BJ27" s="92"/>
-      <c r="BK27" s="92"/>
-      <c r="BL27" s="92"/>
-      <c r="BM27" s="92"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="91"/>
+      <c r="AE27" s="91"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="91"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="91"/>
+      <c r="AJ27" s="91"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="91"/>
+      <c r="AN27" s="91"/>
+      <c r="AO27" s="91"/>
+      <c r="AP27" s="91"/>
+      <c r="AQ27" s="91"/>
+      <c r="AR27" s="91"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="91"/>
+      <c r="BG27" s="91"/>
+      <c r="BH27" s="91"/>
+      <c r="BI27" s="91"/>
+      <c r="BJ27" s="91"/>
+      <c r="BK27" s="91"/>
+      <c r="BL27" s="91"/>
+      <c r="BM27" s="91"/>
     </row>
     <row r="28" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A28" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.6</v>
       </c>
-      <c r="B28" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>28</v>
+      <c r="B28" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>128</v>
       </c>
       <c r="D28" s="67">
         <v>45036</v>
@@ -5425,74 +5409,74 @@
         <v>2</v>
       </c>
       <c r="G28" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="92"/>
-      <c r="AO28" s="92"/>
-      <c r="AP28" s="92"/>
-      <c r="AQ28" s="92"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
-      <c r="BK28" s="92"/>
-      <c r="BL28" s="92"/>
-      <c r="BM28" s="92"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="91"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="91"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="91"/>
+      <c r="AH28" s="91"/>
+      <c r="AI28" s="91"/>
+      <c r="AJ28" s="91"/>
+      <c r="AK28" s="91"/>
+      <c r="AL28" s="91"/>
+      <c r="AM28" s="91"/>
+      <c r="AN28" s="91"/>
+      <c r="AO28" s="91"/>
+      <c r="AP28" s="91"/>
+      <c r="AQ28" s="91"/>
+      <c r="AR28" s="91"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="91"/>
+      <c r="AZ28" s="91"/>
+      <c r="BA28" s="91"/>
+      <c r="BB28" s="91"/>
+      <c r="BC28" s="91"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="91"/>
+      <c r="BF28" s="91"/>
+      <c r="BG28" s="91"/>
+      <c r="BH28" s="91"/>
+      <c r="BI28" s="91"/>
+      <c r="BJ28" s="91"/>
+      <c r="BK28" s="91"/>
+      <c r="BL28" s="91"/>
+      <c r="BM28" s="91"/>
     </row>
     <row r="29" spans="1:65" s="36" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.7</v>
       </c>
-      <c r="B29" s="65" t="s">
-        <v>29</v>
+      <c r="B29" s="103" t="s">
+        <v>130</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>5</v>
@@ -5508,77 +5492,77 @@
         <v>4</v>
       </c>
       <c r="G29" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="92"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="92"/>
-      <c r="AJ29" s="92"/>
-      <c r="AK29" s="92"/>
-      <c r="AL29" s="92"/>
-      <c r="AM29" s="92"/>
-      <c r="AN29" s="92"/>
-      <c r="AO29" s="92"/>
-      <c r="AP29" s="92"/>
-      <c r="AQ29" s="92"/>
-      <c r="AR29" s="92"/>
-      <c r="AS29" s="92"/>
-      <c r="AT29" s="92"/>
-      <c r="AU29" s="92"/>
-      <c r="AV29" s="92"/>
-      <c r="AW29" s="92"/>
-      <c r="AX29" s="92"/>
-      <c r="AY29" s="92"/>
-      <c r="AZ29" s="92"/>
-      <c r="BA29" s="92"/>
-      <c r="BB29" s="92"/>
-      <c r="BC29" s="92"/>
-      <c r="BD29" s="92"/>
-      <c r="BE29" s="92"/>
-      <c r="BF29" s="92"/>
-      <c r="BG29" s="92"/>
-      <c r="BH29" s="92"/>
-      <c r="BI29" s="92"/>
-      <c r="BJ29" s="92"/>
-      <c r="BK29" s="92"/>
-      <c r="BL29" s="92"/>
-      <c r="BM29" s="92"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="91"/>
+      <c r="AC29" s="91"/>
+      <c r="AD29" s="91"/>
+      <c r="AE29" s="91"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="91"/>
+      <c r="AH29" s="91"/>
+      <c r="AI29" s="91"/>
+      <c r="AJ29" s="91"/>
+      <c r="AK29" s="91"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="91"/>
+      <c r="AN29" s="91"/>
+      <c r="AO29" s="91"/>
+      <c r="AP29" s="91"/>
+      <c r="AQ29" s="91"/>
+      <c r="AR29" s="91"/>
+      <c r="AS29" s="91"/>
+      <c r="AT29" s="91"/>
+      <c r="AU29" s="91"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="91"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="91"/>
+      <c r="BA29" s="91"/>
+      <c r="BB29" s="91"/>
+      <c r="BC29" s="91"/>
+      <c r="BD29" s="91"/>
+      <c r="BE29" s="91"/>
+      <c r="BF29" s="91"/>
+      <c r="BG29" s="91"/>
+      <c r="BH29" s="91"/>
+      <c r="BI29" s="91"/>
+      <c r="BJ29" s="91"/>
+      <c r="BK29" s="91"/>
+      <c r="BL29" s="91"/>
+      <c r="BM29" s="91"/>
     </row>
     <row r="30" spans="1:65" s="36" customFormat="1" ht="17">
       <c r="A30" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.8</v>
       </c>
-      <c r="B30" s="104" t="s">
-        <v>112</v>
+      <c r="B30" s="103" t="s">
+        <v>106</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="67">
         <v>45036</v>
@@ -5591,77 +5575,77 @@
         <v>5</v>
       </c>
       <c r="G30" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="92"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="92"/>
-      <c r="AK30" s="92"/>
-      <c r="AL30" s="92"/>
-      <c r="AM30" s="92"/>
-      <c r="AN30" s="92"/>
-      <c r="AO30" s="92"/>
-      <c r="AP30" s="92"/>
-      <c r="AQ30" s="92"/>
-      <c r="AR30" s="92"/>
-      <c r="AS30" s="92"/>
-      <c r="AT30" s="92"/>
-      <c r="AU30" s="92"/>
-      <c r="AV30" s="92"/>
-      <c r="AW30" s="92"/>
-      <c r="AX30" s="92"/>
-      <c r="AY30" s="92"/>
-      <c r="AZ30" s="92"/>
-      <c r="BA30" s="92"/>
-      <c r="BB30" s="92"/>
-      <c r="BC30" s="92"/>
-      <c r="BD30" s="92"/>
-      <c r="BE30" s="92"/>
-      <c r="BF30" s="92"/>
-      <c r="BG30" s="92"/>
-      <c r="BH30" s="92"/>
-      <c r="BI30" s="92"/>
-      <c r="BJ30" s="92"/>
-      <c r="BK30" s="92"/>
-      <c r="BL30" s="92"/>
-      <c r="BM30" s="92"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="91"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="91"/>
+      <c r="AJ30" s="91"/>
+      <c r="AK30" s="91"/>
+      <c r="AL30" s="91"/>
+      <c r="AM30" s="91"/>
+      <c r="AN30" s="91"/>
+      <c r="AO30" s="91"/>
+      <c r="AP30" s="91"/>
+      <c r="AQ30" s="91"/>
+      <c r="AR30" s="91"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="91"/>
+      <c r="BA30" s="91"/>
+      <c r="BB30" s="91"/>
+      <c r="BC30" s="91"/>
+      <c r="BD30" s="91"/>
+      <c r="BE30" s="91"/>
+      <c r="BF30" s="91"/>
+      <c r="BG30" s="91"/>
+      <c r="BH30" s="91"/>
+      <c r="BI30" s="91"/>
+      <c r="BJ30" s="91"/>
+      <c r="BK30" s="91"/>
+      <c r="BL30" s="91"/>
+      <c r="BM30" s="91"/>
     </row>
     <row r="31" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A31" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.9</v>
       </c>
-      <c r="B31" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>28</v>
+      <c r="B31" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>128</v>
       </c>
       <c r="D31" s="67">
         <v>45041</v>
@@ -5674,74 +5658,74 @@
         <v>2</v>
       </c>
       <c r="G31" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="71"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="92"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="92"/>
-      <c r="AJ31" s="92"/>
-      <c r="AK31" s="92"/>
-      <c r="AL31" s="92"/>
-      <c r="AM31" s="92"/>
-      <c r="AN31" s="92"/>
-      <c r="AO31" s="92"/>
-      <c r="AP31" s="92"/>
-      <c r="AQ31" s="92"/>
-      <c r="AR31" s="92"/>
-      <c r="AS31" s="92"/>
-      <c r="AT31" s="92"/>
-      <c r="AU31" s="92"/>
-      <c r="AV31" s="92"/>
-      <c r="AW31" s="92"/>
-      <c r="AX31" s="92"/>
-      <c r="AY31" s="92"/>
-      <c r="AZ31" s="92"/>
-      <c r="BA31" s="92"/>
-      <c r="BB31" s="92"/>
-      <c r="BC31" s="92"/>
-      <c r="BD31" s="92"/>
-      <c r="BE31" s="92"/>
-      <c r="BF31" s="92"/>
-      <c r="BG31" s="92"/>
-      <c r="BH31" s="92"/>
-      <c r="BI31" s="92"/>
-      <c r="BJ31" s="92"/>
-      <c r="BK31" s="92"/>
-      <c r="BL31" s="92"/>
-      <c r="BM31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="91"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="91"/>
+      <c r="AJ31" s="91"/>
+      <c r="AK31" s="91"/>
+      <c r="AL31" s="91"/>
+      <c r="AM31" s="91"/>
+      <c r="AN31" s="91"/>
+      <c r="AO31" s="91"/>
+      <c r="AP31" s="91"/>
+      <c r="AQ31" s="91"/>
+      <c r="AR31" s="91"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="91"/>
+      <c r="AU31" s="91"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="91"/>
+      <c r="BA31" s="91"/>
+      <c r="BB31" s="91"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="91"/>
+      <c r="BE31" s="91"/>
+      <c r="BF31" s="91"/>
+      <c r="BG31" s="91"/>
+      <c r="BH31" s="91"/>
+      <c r="BI31" s="91"/>
+      <c r="BJ31" s="91"/>
+      <c r="BK31" s="91"/>
+      <c r="BL31" s="91"/>
+      <c r="BM31" s="91"/>
     </row>
     <row r="32" spans="1:65" s="37" customFormat="1" ht="26">
       <c r="A32" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.10</v>
       </c>
-      <c r="B32" s="65" t="s">
-        <v>30</v>
+      <c r="B32" s="103" t="s">
+        <v>124</v>
       </c>
       <c r="C32" s="66" t="s">
         <v>5</v>
@@ -5757,240 +5741,240 @@
         <v>5</v>
       </c>
       <c r="G32" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="71"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="92"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="92"/>
-      <c r="AJ32" s="92"/>
-      <c r="AK32" s="92"/>
-      <c r="AL32" s="92"/>
-      <c r="AM32" s="92"/>
-      <c r="AN32" s="92"/>
-      <c r="AO32" s="92"/>
-      <c r="AP32" s="92"/>
-      <c r="AQ32" s="92"/>
-      <c r="AR32" s="92"/>
-      <c r="AS32" s="92"/>
-      <c r="AT32" s="92"/>
-      <c r="AU32" s="92"/>
-      <c r="AV32" s="92"/>
-      <c r="AW32" s="92"/>
-      <c r="AX32" s="92"/>
-      <c r="AY32" s="92"/>
-      <c r="AZ32" s="92"/>
-      <c r="BA32" s="92"/>
-      <c r="BB32" s="92"/>
-      <c r="BC32" s="92"/>
-      <c r="BD32" s="92"/>
-      <c r="BE32" s="92"/>
-      <c r="BF32" s="92"/>
-      <c r="BG32" s="92"/>
-      <c r="BH32" s="92"/>
-      <c r="BI32" s="92"/>
-      <c r="BJ32" s="92"/>
-      <c r="BK32" s="92"/>
-      <c r="BL32" s="92"/>
-      <c r="BM32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="91"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="91"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="91"/>
+      <c r="AJ32" s="91"/>
+      <c r="AK32" s="91"/>
+      <c r="AL32" s="91"/>
+      <c r="AM32" s="91"/>
+      <c r="AN32" s="91"/>
+      <c r="AO32" s="91"/>
+      <c r="AP32" s="91"/>
+      <c r="AQ32" s="91"/>
+      <c r="AR32" s="91"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="91"/>
+      <c r="AU32" s="91"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="91"/>
+      <c r="AX32" s="91"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="91"/>
+      <c r="BA32" s="91"/>
+      <c r="BB32" s="91"/>
+      <c r="BC32" s="91"/>
+      <c r="BD32" s="91"/>
+      <c r="BE32" s="91"/>
+      <c r="BF32" s="91"/>
+      <c r="BG32" s="91"/>
+      <c r="BH32" s="91"/>
+      <c r="BI32" s="91"/>
+      <c r="BJ32" s="91"/>
+      <c r="BK32" s="91"/>
+      <c r="BL32" s="91"/>
+      <c r="BM32" s="91"/>
     </row>
     <row r="33" spans="1:65" s="37" customFormat="1" ht="17">
-      <c r="A33" s="107" t="str">
+      <c r="A33" s="106" t="str">
         <f t="shared" si="23"/>
         <v>5.11</v>
       </c>
-      <c r="B33" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="110">
+      <c r="B33" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="109">
         <v>45040</v>
       </c>
-      <c r="E33" s="111">
+      <c r="E33" s="110">
         <f>IF(ISBLANK(D33)," - ",IF(F33=0,D33,D33+F33-1))</f>
         <v>45043</v>
       </c>
-      <c r="F33" s="112">
+      <c r="F33" s="111">
         <v>4</v>
       </c>
-      <c r="G33" s="113">
-        <v>0</v>
+      <c r="G33" s="112">
+        <v>1</v>
       </c>
       <c r="H33" s="71"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="99"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="92"/>
-      <c r="AL33" s="92"/>
-      <c r="AM33" s="92"/>
-      <c r="AN33" s="92"/>
-      <c r="AO33" s="92"/>
-      <c r="AP33" s="92"/>
-      <c r="AQ33" s="92"/>
-      <c r="AR33" s="92"/>
-      <c r="AS33" s="92"/>
-      <c r="AT33" s="92"/>
-      <c r="AU33" s="92"/>
-      <c r="AV33" s="92"/>
-      <c r="AW33" s="92"/>
-      <c r="AX33" s="92"/>
-      <c r="AY33" s="92"/>
-      <c r="AZ33" s="92"/>
-      <c r="BA33" s="92"/>
-      <c r="BB33" s="92"/>
-      <c r="BC33" s="92"/>
-      <c r="BD33" s="92"/>
-      <c r="BE33" s="92"/>
-      <c r="BF33" s="92"/>
-      <c r="BG33" s="92"/>
-      <c r="BH33" s="92"/>
-      <c r="BI33" s="92"/>
-      <c r="BJ33" s="92"/>
-      <c r="BK33" s="92"/>
-      <c r="BL33" s="92"/>
-      <c r="BM33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="91"/>
+      <c r="AK33" s="91"/>
+      <c r="AL33" s="91"/>
+      <c r="AM33" s="91"/>
+      <c r="AN33" s="91"/>
+      <c r="AO33" s="91"/>
+      <c r="AP33" s="91"/>
+      <c r="AQ33" s="91"/>
+      <c r="AR33" s="91"/>
+      <c r="AS33" s="91"/>
+      <c r="AT33" s="91"/>
+      <c r="AU33" s="91"/>
+      <c r="AV33" s="91"/>
+      <c r="AW33" s="91"/>
+      <c r="AX33" s="91"/>
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="91"/>
+      <c r="BA33" s="91"/>
+      <c r="BB33" s="91"/>
+      <c r="BC33" s="91"/>
+      <c r="BD33" s="91"/>
+      <c r="BE33" s="91"/>
+      <c r="BF33" s="91"/>
+      <c r="BG33" s="91"/>
+      <c r="BH33" s="91"/>
+      <c r="BI33" s="91"/>
+      <c r="BJ33" s="91"/>
+      <c r="BK33" s="91"/>
+      <c r="BL33" s="91"/>
+      <c r="BM33" s="91"/>
     </row>
     <row r="34" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A34" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.12</v>
       </c>
-      <c r="B34" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>28</v>
+      <c r="B34" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>128</v>
       </c>
       <c r="D34" s="67">
         <v>45044</v>
       </c>
       <c r="E34" s="68">
-        <f t="shared" si="24"/>
+        <f>IF(ISBLANK(D34)," - ",IF(F34=E340,D34,D34+F34-1))</f>
         <v>45045</v>
       </c>
       <c r="F34" s="69">
         <v>2</v>
       </c>
       <c r="G34" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="71"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="99"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="92"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
-      <c r="AD34" s="92"/>
-      <c r="AE34" s="92"/>
-      <c r="AF34" s="92"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="92"/>
-      <c r="AJ34" s="92"/>
-      <c r="AK34" s="92"/>
-      <c r="AL34" s="92"/>
-      <c r="AM34" s="92"/>
-      <c r="AN34" s="92"/>
-      <c r="AO34" s="92"/>
-      <c r="AP34" s="92"/>
-      <c r="AQ34" s="92"/>
-      <c r="AR34" s="92"/>
-      <c r="AS34" s="92"/>
-      <c r="AT34" s="92"/>
-      <c r="AU34" s="92"/>
-      <c r="AV34" s="92"/>
-      <c r="AW34" s="92"/>
-      <c r="AX34" s="92"/>
-      <c r="AY34" s="92"/>
-      <c r="AZ34" s="92"/>
-      <c r="BA34" s="92"/>
-      <c r="BB34" s="92"/>
-      <c r="BC34" s="92"/>
-      <c r="BD34" s="92"/>
-      <c r="BE34" s="92"/>
-      <c r="BF34" s="92"/>
-      <c r="BG34" s="92"/>
-      <c r="BH34" s="92"/>
-      <c r="BI34" s="92"/>
-      <c r="BJ34" s="92"/>
-      <c r="BK34" s="92"/>
-      <c r="BL34" s="92"/>
-      <c r="BM34" s="92"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="91"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="91"/>
+      <c r="AH34" s="91"/>
+      <c r="AI34" s="91"/>
+      <c r="AJ34" s="91"/>
+      <c r="AK34" s="91"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="91"/>
+      <c r="AN34" s="91"/>
+      <c r="AO34" s="91"/>
+      <c r="AP34" s="91"/>
+      <c r="AQ34" s="91"/>
+      <c r="AR34" s="91"/>
+      <c r="AS34" s="91"/>
+      <c r="AT34" s="91"/>
+      <c r="AU34" s="91"/>
+      <c r="AV34" s="91"/>
+      <c r="AW34" s="91"/>
+      <c r="AX34" s="91"/>
+      <c r="AY34" s="91"/>
+      <c r="AZ34" s="91"/>
+      <c r="BA34" s="91"/>
+      <c r="BB34" s="91"/>
+      <c r="BC34" s="91"/>
+      <c r="BD34" s="91"/>
+      <c r="BE34" s="91"/>
+      <c r="BF34" s="91"/>
+      <c r="BG34" s="91"/>
+      <c r="BH34" s="91"/>
+      <c r="BI34" s="91"/>
+      <c r="BJ34" s="91"/>
+      <c r="BK34" s="91"/>
+      <c r="BL34" s="91"/>
+      <c r="BM34" s="91"/>
     </row>
     <row r="35" spans="1:65" s="37" customFormat="1" ht="26">
       <c r="A35" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.13</v>
       </c>
-      <c r="B35" s="65" t="s">
-        <v>32</v>
+      <c r="B35" s="103" t="s">
+        <v>125</v>
       </c>
       <c r="C35" s="66" t="s">
         <v>5</v>
@@ -6006,66 +5990,66 @@
         <v>5</v>
       </c>
       <c r="G35" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="71"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="99"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="92"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="92"/>
-      <c r="AI35" s="92"/>
-      <c r="AJ35" s="92"/>
-      <c r="AK35" s="92"/>
-      <c r="AL35" s="92"/>
-      <c r="AM35" s="92"/>
-      <c r="AN35" s="92"/>
-      <c r="AO35" s="92"/>
-      <c r="AP35" s="92"/>
-      <c r="AQ35" s="92"/>
-      <c r="AR35" s="92"/>
-      <c r="AS35" s="92"/>
-      <c r="AT35" s="92"/>
-      <c r="AU35" s="92"/>
-      <c r="AV35" s="92"/>
-      <c r="AW35" s="92"/>
-      <c r="AX35" s="92"/>
-      <c r="AY35" s="92"/>
-      <c r="AZ35" s="92"/>
-      <c r="BA35" s="92"/>
-      <c r="BB35" s="92"/>
-      <c r="BC35" s="92"/>
-      <c r="BD35" s="92"/>
-      <c r="BE35" s="92"/>
-      <c r="BF35" s="92"/>
-      <c r="BG35" s="92"/>
-      <c r="BH35" s="92"/>
-      <c r="BI35" s="92"/>
-      <c r="BJ35" s="92"/>
-      <c r="BK35" s="92"/>
-      <c r="BL35" s="92"/>
-      <c r="BM35" s="92"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="98"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="91"/>
+      <c r="AE35" s="91"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="91"/>
+      <c r="AH35" s="91"/>
+      <c r="AI35" s="91"/>
+      <c r="AJ35" s="91"/>
+      <c r="AK35" s="91"/>
+      <c r="AL35" s="91"/>
+      <c r="AM35" s="91"/>
+      <c r="AN35" s="91"/>
+      <c r="AO35" s="91"/>
+      <c r="AP35" s="91"/>
+      <c r="AQ35" s="91"/>
+      <c r="AR35" s="91"/>
+      <c r="AS35" s="91"/>
+      <c r="AT35" s="91"/>
+      <c r="AU35" s="91"/>
+      <c r="AV35" s="91"/>
+      <c r="AW35" s="91"/>
+      <c r="AX35" s="91"/>
+      <c r="AY35" s="91"/>
+      <c r="AZ35" s="91"/>
+      <c r="BA35" s="91"/>
+      <c r="BB35" s="91"/>
+      <c r="BC35" s="91"/>
+      <c r="BD35" s="91"/>
+      <c r="BE35" s="91"/>
+      <c r="BF35" s="91"/>
+      <c r="BG35" s="91"/>
+      <c r="BH35" s="91"/>
+      <c r="BI35" s="91"/>
+      <c r="BJ35" s="91"/>
+      <c r="BK35" s="91"/>
+      <c r="BL35" s="91"/>
+      <c r="BM35" s="91"/>
     </row>
     <row r="36" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A36" s="64" t="str">
@@ -6073,10 +6057,10 @@
         <v>5.14</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="67">
         <v>45046</v>
@@ -6089,77 +6073,77 @@
         <v>5</v>
       </c>
       <c r="G36" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="71"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="92"/>
-      <c r="V36" s="92"/>
-      <c r="W36" s="92"/>
-      <c r="X36" s="99"/>
-      <c r="Y36" s="92"/>
-      <c r="Z36" s="92"/>
-      <c r="AA36" s="92"/>
-      <c r="AB36" s="92"/>
-      <c r="AC36" s="92"/>
-      <c r="AD36" s="92"/>
-      <c r="AE36" s="92"/>
-      <c r="AF36" s="92"/>
-      <c r="AG36" s="92"/>
-      <c r="AH36" s="92"/>
-      <c r="AI36" s="92"/>
-      <c r="AJ36" s="92"/>
-      <c r="AK36" s="92"/>
-      <c r="AL36" s="92"/>
-      <c r="AM36" s="92"/>
-      <c r="AN36" s="92"/>
-      <c r="AO36" s="92"/>
-      <c r="AP36" s="92"/>
-      <c r="AQ36" s="92"/>
-      <c r="AR36" s="92"/>
-      <c r="AS36" s="92"/>
-      <c r="AT36" s="92"/>
-      <c r="AU36" s="92"/>
-      <c r="AV36" s="92"/>
-      <c r="AW36" s="92"/>
-      <c r="AX36" s="92"/>
-      <c r="AY36" s="92"/>
-      <c r="AZ36" s="92"/>
-      <c r="BA36" s="92"/>
-      <c r="BB36" s="92"/>
-      <c r="BC36" s="92"/>
-      <c r="BD36" s="92"/>
-      <c r="BE36" s="92"/>
-      <c r="BF36" s="92"/>
-      <c r="BG36" s="92"/>
-      <c r="BH36" s="92"/>
-      <c r="BI36" s="92"/>
-      <c r="BJ36" s="92"/>
-      <c r="BK36" s="92"/>
-      <c r="BL36" s="92"/>
-      <c r="BM36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="98"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="91"/>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="91"/>
+      <c r="AE36" s="91"/>
+      <c r="AF36" s="91"/>
+      <c r="AG36" s="91"/>
+      <c r="AH36" s="91"/>
+      <c r="AI36" s="91"/>
+      <c r="AJ36" s="91"/>
+      <c r="AK36" s="91"/>
+      <c r="AL36" s="91"/>
+      <c r="AM36" s="91"/>
+      <c r="AN36" s="91"/>
+      <c r="AO36" s="91"/>
+      <c r="AP36" s="91"/>
+      <c r="AQ36" s="91"/>
+      <c r="AR36" s="91"/>
+      <c r="AS36" s="91"/>
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="91"/>
+      <c r="AV36" s="91"/>
+      <c r="AW36" s="91"/>
+      <c r="AX36" s="91"/>
+      <c r="AY36" s="91"/>
+      <c r="AZ36" s="91"/>
+      <c r="BA36" s="91"/>
+      <c r="BB36" s="91"/>
+      <c r="BC36" s="91"/>
+      <c r="BD36" s="91"/>
+      <c r="BE36" s="91"/>
+      <c r="BF36" s="91"/>
+      <c r="BG36" s="91"/>
+      <c r="BH36" s="91"/>
+      <c r="BI36" s="91"/>
+      <c r="BJ36" s="91"/>
+      <c r="BK36" s="91"/>
+      <c r="BL36" s="91"/>
+      <c r="BM36" s="91"/>
     </row>
     <row r="37" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A37" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.15</v>
       </c>
-      <c r="B37" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>28</v>
+      <c r="B37" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>128</v>
       </c>
       <c r="D37" s="67">
         <v>45050</v>
@@ -6172,74 +6156,74 @@
         <v>2</v>
       </c>
       <c r="G37" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="71"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="92"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="99"/>
-      <c r="Y37" s="92"/>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="92"/>
-      <c r="AB37" s="92"/>
-      <c r="AC37" s="92"/>
-      <c r="AD37" s="92"/>
-      <c r="AE37" s="92"/>
-      <c r="AF37" s="92"/>
-      <c r="AG37" s="92"/>
-      <c r="AH37" s="92"/>
-      <c r="AI37" s="92"/>
-      <c r="AJ37" s="92"/>
-      <c r="AK37" s="92"/>
-      <c r="AL37" s="92"/>
-      <c r="AM37" s="92"/>
-      <c r="AN37" s="92"/>
-      <c r="AO37" s="92"/>
-      <c r="AP37" s="92"/>
-      <c r="AQ37" s="92"/>
-      <c r="AR37" s="92"/>
-      <c r="AS37" s="92"/>
-      <c r="AT37" s="92"/>
-      <c r="AU37" s="92"/>
-      <c r="AV37" s="92"/>
-      <c r="AW37" s="92"/>
-      <c r="AX37" s="92"/>
-      <c r="AY37" s="92"/>
-      <c r="AZ37" s="92"/>
-      <c r="BA37" s="92"/>
-      <c r="BB37" s="92"/>
-      <c r="BC37" s="92"/>
-      <c r="BD37" s="92"/>
-      <c r="BE37" s="92"/>
-      <c r="BF37" s="92"/>
-      <c r="BG37" s="92"/>
-      <c r="BH37" s="92"/>
-      <c r="BI37" s="92"/>
-      <c r="BJ37" s="92"/>
-      <c r="BK37" s="92"/>
-      <c r="BL37" s="92"/>
-      <c r="BM37" s="92"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="98"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="91"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="91"/>
+      <c r="AC37" s="91"/>
+      <c r="AD37" s="91"/>
+      <c r="AE37" s="91"/>
+      <c r="AF37" s="91"/>
+      <c r="AG37" s="91"/>
+      <c r="AH37" s="91"/>
+      <c r="AI37" s="91"/>
+      <c r="AJ37" s="91"/>
+      <c r="AK37" s="91"/>
+      <c r="AL37" s="91"/>
+      <c r="AM37" s="91"/>
+      <c r="AN37" s="91"/>
+      <c r="AO37" s="91"/>
+      <c r="AP37" s="91"/>
+      <c r="AQ37" s="91"/>
+      <c r="AR37" s="91"/>
+      <c r="AS37" s="91"/>
+      <c r="AT37" s="91"/>
+      <c r="AU37" s="91"/>
+      <c r="AV37" s="91"/>
+      <c r="AW37" s="91"/>
+      <c r="AX37" s="91"/>
+      <c r="AY37" s="91"/>
+      <c r="AZ37" s="91"/>
+      <c r="BA37" s="91"/>
+      <c r="BB37" s="91"/>
+      <c r="BC37" s="91"/>
+      <c r="BD37" s="91"/>
+      <c r="BE37" s="91"/>
+      <c r="BF37" s="91"/>
+      <c r="BG37" s="91"/>
+      <c r="BH37" s="91"/>
+      <c r="BI37" s="91"/>
+      <c r="BJ37" s="91"/>
+      <c r="BK37" s="91"/>
+      <c r="BL37" s="91"/>
+      <c r="BM37" s="91"/>
     </row>
     <row r="38" spans="1:65" s="37" customFormat="1" ht="26">
       <c r="A38" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.16</v>
       </c>
-      <c r="B38" s="65" t="s">
-        <v>34</v>
+      <c r="B38" s="103" t="s">
+        <v>126</v>
       </c>
       <c r="C38" s="66" t="s">
         <v>5</v>
@@ -6255,66 +6239,66 @@
         <v>5</v>
       </c>
       <c r="G38" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="71"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="92"/>
-      <c r="V38" s="92"/>
-      <c r="W38" s="92"/>
-      <c r="X38" s="99"/>
-      <c r="Y38" s="92"/>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="92"/>
-      <c r="AB38" s="92"/>
-      <c r="AC38" s="92"/>
-      <c r="AD38" s="92"/>
-      <c r="AE38" s="92"/>
-      <c r="AF38" s="92"/>
-      <c r="AG38" s="92"/>
-      <c r="AH38" s="92"/>
-      <c r="AI38" s="92"/>
-      <c r="AJ38" s="92"/>
-      <c r="AK38" s="92"/>
-      <c r="AL38" s="92"/>
-      <c r="AM38" s="92"/>
-      <c r="AN38" s="92"/>
-      <c r="AO38" s="92"/>
-      <c r="AP38" s="92"/>
-      <c r="AQ38" s="92"/>
-      <c r="AR38" s="92"/>
-      <c r="AS38" s="92"/>
-      <c r="AT38" s="92"/>
-      <c r="AU38" s="92"/>
-      <c r="AV38" s="92"/>
-      <c r="AW38" s="92"/>
-      <c r="AX38" s="92"/>
-      <c r="AY38" s="92"/>
-      <c r="AZ38" s="92"/>
-      <c r="BA38" s="92"/>
-      <c r="BB38" s="92"/>
-      <c r="BC38" s="92"/>
-      <c r="BD38" s="92"/>
-      <c r="BE38" s="92"/>
-      <c r="BF38" s="92"/>
-      <c r="BG38" s="92"/>
-      <c r="BH38" s="92"/>
-      <c r="BI38" s="92"/>
-      <c r="BJ38" s="92"/>
-      <c r="BK38" s="92"/>
-      <c r="BL38" s="92"/>
-      <c r="BM38" s="92"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="98"/>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="91"/>
+      <c r="AA38" s="91"/>
+      <c r="AB38" s="91"/>
+      <c r="AC38" s="91"/>
+      <c r="AD38" s="91"/>
+      <c r="AE38" s="91"/>
+      <c r="AF38" s="91"/>
+      <c r="AG38" s="91"/>
+      <c r="AH38" s="91"/>
+      <c r="AI38" s="91"/>
+      <c r="AJ38" s="91"/>
+      <c r="AK38" s="91"/>
+      <c r="AL38" s="91"/>
+      <c r="AM38" s="91"/>
+      <c r="AN38" s="91"/>
+      <c r="AO38" s="91"/>
+      <c r="AP38" s="91"/>
+      <c r="AQ38" s="91"/>
+      <c r="AR38" s="91"/>
+      <c r="AS38" s="91"/>
+      <c r="AT38" s="91"/>
+      <c r="AU38" s="91"/>
+      <c r="AV38" s="91"/>
+      <c r="AW38" s="91"/>
+      <c r="AX38" s="91"/>
+      <c r="AY38" s="91"/>
+      <c r="AZ38" s="91"/>
+      <c r="BA38" s="91"/>
+      <c r="BB38" s="91"/>
+      <c r="BC38" s="91"/>
+      <c r="BD38" s="91"/>
+      <c r="BE38" s="91"/>
+      <c r="BF38" s="91"/>
+      <c r="BG38" s="91"/>
+      <c r="BH38" s="91"/>
+      <c r="BI38" s="91"/>
+      <c r="BJ38" s="91"/>
+      <c r="BK38" s="91"/>
+      <c r="BL38" s="91"/>
+      <c r="BM38" s="91"/>
     </row>
     <row r="39" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A39" s="64" t="str">
@@ -6322,10 +6306,10 @@
         <v>5.17</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="67">
         <v>45057</v>
@@ -6338,77 +6322,77 @@
         <v>5</v>
       </c>
       <c r="G39" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="71"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="99"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="92"/>
-      <c r="AB39" s="92"/>
-      <c r="AC39" s="92"/>
-      <c r="AD39" s="92"/>
-      <c r="AE39" s="92"/>
-      <c r="AF39" s="92"/>
-      <c r="AG39" s="92"/>
-      <c r="AH39" s="92"/>
-      <c r="AI39" s="92"/>
-      <c r="AJ39" s="92"/>
-      <c r="AK39" s="92"/>
-      <c r="AL39" s="92"/>
-      <c r="AM39" s="92"/>
-      <c r="AN39" s="92"/>
-      <c r="AO39" s="92"/>
-      <c r="AP39" s="92"/>
-      <c r="AQ39" s="92"/>
-      <c r="AR39" s="92"/>
-      <c r="AS39" s="92"/>
-      <c r="AT39" s="92"/>
-      <c r="AU39" s="92"/>
-      <c r="AV39" s="92"/>
-      <c r="AW39" s="92"/>
-      <c r="AX39" s="92"/>
-      <c r="AY39" s="92"/>
-      <c r="AZ39" s="92"/>
-      <c r="BA39" s="92"/>
-      <c r="BB39" s="92"/>
-      <c r="BC39" s="92"/>
-      <c r="BD39" s="92"/>
-      <c r="BE39" s="92"/>
-      <c r="BF39" s="92"/>
-      <c r="BG39" s="92"/>
-      <c r="BH39" s="92"/>
-      <c r="BI39" s="92"/>
-      <c r="BJ39" s="92"/>
-      <c r="BK39" s="92"/>
-      <c r="BL39" s="92"/>
-      <c r="BM39" s="92"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="98"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
+      <c r="AA39" s="91"/>
+      <c r="AB39" s="91"/>
+      <c r="AC39" s="91"/>
+      <c r="AD39" s="91"/>
+      <c r="AE39" s="91"/>
+      <c r="AF39" s="91"/>
+      <c r="AG39" s="91"/>
+      <c r="AH39" s="91"/>
+      <c r="AI39" s="91"/>
+      <c r="AJ39" s="91"/>
+      <c r="AK39" s="91"/>
+      <c r="AL39" s="91"/>
+      <c r="AM39" s="91"/>
+      <c r="AN39" s="91"/>
+      <c r="AO39" s="91"/>
+      <c r="AP39" s="91"/>
+      <c r="AQ39" s="91"/>
+      <c r="AR39" s="91"/>
+      <c r="AS39" s="91"/>
+      <c r="AT39" s="91"/>
+      <c r="AU39" s="91"/>
+      <c r="AV39" s="91"/>
+      <c r="AW39" s="91"/>
+      <c r="AX39" s="91"/>
+      <c r="AY39" s="91"/>
+      <c r="AZ39" s="91"/>
+      <c r="BA39" s="91"/>
+      <c r="BB39" s="91"/>
+      <c r="BC39" s="91"/>
+      <c r="BD39" s="91"/>
+      <c r="BE39" s="91"/>
+      <c r="BF39" s="91"/>
+      <c r="BG39" s="91"/>
+      <c r="BH39" s="91"/>
+      <c r="BI39" s="91"/>
+      <c r="BJ39" s="91"/>
+      <c r="BK39" s="91"/>
+      <c r="BL39" s="91"/>
+      <c r="BM39" s="91"/>
     </row>
     <row r="40" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A40" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.18</v>
       </c>
-      <c r="B40" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>28</v>
+      <c r="B40" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>128</v>
       </c>
       <c r="D40" s="67">
         <v>45061</v>
@@ -6421,77 +6405,77 @@
         <v>2</v>
       </c>
       <c r="G40" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="71"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="99"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="92"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="92"/>
-      <c r="AF40" s="92"/>
-      <c r="AG40" s="92"/>
-      <c r="AH40" s="92"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="92"/>
-      <c r="AK40" s="92"/>
-      <c r="AL40" s="92"/>
-      <c r="AM40" s="92"/>
-      <c r="AN40" s="92"/>
-      <c r="AO40" s="92"/>
-      <c r="AP40" s="92"/>
-      <c r="AQ40" s="92"/>
-      <c r="AR40" s="92"/>
-      <c r="AS40" s="92"/>
-      <c r="AT40" s="92"/>
-      <c r="AU40" s="92"/>
-      <c r="AV40" s="92"/>
-      <c r="AW40" s="92"/>
-      <c r="AX40" s="92"/>
-      <c r="AY40" s="92"/>
-      <c r="AZ40" s="92"/>
-      <c r="BA40" s="92"/>
-      <c r="BB40" s="92"/>
-      <c r="BC40" s="92"/>
-      <c r="BD40" s="92"/>
-      <c r="BE40" s="92"/>
-      <c r="BF40" s="92"/>
-      <c r="BG40" s="92"/>
-      <c r="BH40" s="92"/>
-      <c r="BI40" s="92"/>
-      <c r="BJ40" s="92"/>
-      <c r="BK40" s="92"/>
-      <c r="BL40" s="92"/>
-      <c r="BM40" s="92"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="98"/>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="91"/>
+      <c r="AA40" s="91"/>
+      <c r="AB40" s="91"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="91"/>
+      <c r="AE40" s="91"/>
+      <c r="AF40" s="91"/>
+      <c r="AG40" s="91"/>
+      <c r="AH40" s="91"/>
+      <c r="AI40" s="91"/>
+      <c r="AJ40" s="91"/>
+      <c r="AK40" s="91"/>
+      <c r="AL40" s="91"/>
+      <c r="AM40" s="91"/>
+      <c r="AN40" s="91"/>
+      <c r="AO40" s="91"/>
+      <c r="AP40" s="91"/>
+      <c r="AQ40" s="91"/>
+      <c r="AR40" s="91"/>
+      <c r="AS40" s="91"/>
+      <c r="AT40" s="91"/>
+      <c r="AU40" s="91"/>
+      <c r="AV40" s="91"/>
+      <c r="AW40" s="91"/>
+      <c r="AX40" s="91"/>
+      <c r="AY40" s="91"/>
+      <c r="AZ40" s="91"/>
+      <c r="BA40" s="91"/>
+      <c r="BB40" s="91"/>
+      <c r="BC40" s="91"/>
+      <c r="BD40" s="91"/>
+      <c r="BE40" s="91"/>
+      <c r="BF40" s="91"/>
+      <c r="BG40" s="91"/>
+      <c r="BH40" s="91"/>
+      <c r="BI40" s="91"/>
+      <c r="BJ40" s="91"/>
+      <c r="BK40" s="91"/>
+      <c r="BL40" s="91"/>
+      <c r="BM40" s="91"/>
     </row>
     <row r="41" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A41" s="64" t="str">
         <f t="shared" si="23"/>
         <v>5.19</v>
       </c>
-      <c r="B41" s="73" t="s">
-        <v>36</v>
+      <c r="B41" s="129" t="s">
+        <v>131</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="67">
         <v>45063</v>
@@ -6504,232 +6488,234 @@
         <v>5</v>
       </c>
       <c r="G41" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="71"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="92"/>
-      <c r="U41" s="92"/>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92"/>
-      <c r="X41" s="99"/>
-      <c r="Y41" s="92"/>
-      <c r="Z41" s="92"/>
-      <c r="AA41" s="92"/>
-      <c r="AB41" s="92"/>
-      <c r="AC41" s="92"/>
-      <c r="AD41" s="92"/>
-      <c r="AE41" s="92"/>
-      <c r="AF41" s="92"/>
-      <c r="AG41" s="92"/>
-      <c r="AH41" s="92"/>
-      <c r="AI41" s="92"/>
-      <c r="AJ41" s="92"/>
-      <c r="AK41" s="92"/>
-      <c r="AL41" s="92"/>
-      <c r="AM41" s="92"/>
-      <c r="AN41" s="92"/>
-      <c r="AO41" s="92"/>
-      <c r="AP41" s="92"/>
-      <c r="AQ41" s="92"/>
-      <c r="AR41" s="92"/>
-      <c r="AS41" s="92"/>
-      <c r="AT41" s="92"/>
-      <c r="AU41" s="92"/>
-      <c r="AV41" s="92"/>
-      <c r="AW41" s="92"/>
-      <c r="AX41" s="92"/>
-      <c r="AY41" s="92"/>
-      <c r="AZ41" s="92"/>
-      <c r="BA41" s="92"/>
-      <c r="BB41" s="92"/>
-      <c r="BC41" s="92"/>
-      <c r="BD41" s="92"/>
-      <c r="BE41" s="92"/>
-      <c r="BF41" s="92"/>
-      <c r="BG41" s="92"/>
-      <c r="BH41" s="92"/>
-      <c r="BI41" s="92"/>
-      <c r="BJ41" s="92"/>
-      <c r="BK41" s="92"/>
-      <c r="BL41" s="92"/>
-      <c r="BM41" s="92"/>
-    </row>
-    <row r="42" spans="1:65" s="128" customFormat="1" ht="17">
-      <c r="A42" s="107" t="str">
+      <c r="I41" s="94"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="98"/>
+      <c r="Y41" s="91"/>
+      <c r="Z41" s="91"/>
+      <c r="AA41" s="91"/>
+      <c r="AB41" s="91"/>
+      <c r="AC41" s="91"/>
+      <c r="AD41" s="91"/>
+      <c r="AE41" s="91"/>
+      <c r="AF41" s="91"/>
+      <c r="AG41" s="91"/>
+      <c r="AH41" s="91"/>
+      <c r="AI41" s="91"/>
+      <c r="AJ41" s="91"/>
+      <c r="AK41" s="91"/>
+      <c r="AL41" s="91"/>
+      <c r="AM41" s="91"/>
+      <c r="AN41" s="91"/>
+      <c r="AO41" s="91"/>
+      <c r="AP41" s="91"/>
+      <c r="AQ41" s="91"/>
+      <c r="AR41" s="91"/>
+      <c r="AS41" s="91"/>
+      <c r="AT41" s="91"/>
+      <c r="AU41" s="91"/>
+      <c r="AV41" s="91"/>
+      <c r="AW41" s="91"/>
+      <c r="AX41" s="91"/>
+      <c r="AY41" s="91"/>
+      <c r="AZ41" s="91"/>
+      <c r="BA41" s="91"/>
+      <c r="BB41" s="91"/>
+      <c r="BC41" s="91"/>
+      <c r="BD41" s="91"/>
+      <c r="BE41" s="91"/>
+      <c r="BF41" s="91"/>
+      <c r="BG41" s="91"/>
+      <c r="BH41" s="91"/>
+      <c r="BI41" s="91"/>
+      <c r="BJ41" s="91"/>
+      <c r="BK41" s="91"/>
+      <c r="BL41" s="91"/>
+      <c r="BM41" s="91"/>
+    </row>
+    <row r="42" spans="1:65" s="116" customFormat="1" ht="17">
+      <c r="A42" s="106" t="str">
         <f t="shared" si="23"/>
         <v>5.20</v>
       </c>
-      <c r="B42" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="110">
+      <c r="B42" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="109">
         <v>45067</v>
       </c>
-      <c r="E42" s="111">
+      <c r="E42" s="110">
         <f>IF(ISBLANK(D42)," - ",IF(F42=0,D42,D42+F42-1))</f>
         <v>45068</v>
       </c>
-      <c r="F42" s="112">
+      <c r="F42" s="111">
         <v>2</v>
       </c>
-      <c r="G42" s="113">
-        <v>0</v>
-      </c>
-      <c r="H42" s="129"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="131"/>
-      <c r="S42" s="131"/>
-      <c r="T42" s="131"/>
-      <c r="U42" s="131"/>
-      <c r="V42" s="131"/>
-      <c r="W42" s="131"/>
-      <c r="X42" s="131"/>
-      <c r="Y42" s="131"/>
-      <c r="Z42" s="131"/>
-      <c r="AA42" s="131"/>
-      <c r="AB42" s="131"/>
-      <c r="AC42" s="131"/>
-      <c r="AD42" s="131"/>
-      <c r="AE42" s="131"/>
-      <c r="AF42" s="131"/>
-      <c r="AG42" s="131"/>
-      <c r="AH42" s="131"/>
-      <c r="AI42" s="131"/>
-      <c r="AJ42" s="131"/>
-      <c r="AK42" s="131"/>
-      <c r="AL42" s="131"/>
-      <c r="AM42" s="131"/>
-      <c r="AN42" s="131"/>
-      <c r="AO42" s="131"/>
-      <c r="AP42" s="131"/>
-      <c r="AQ42" s="131"/>
-      <c r="AR42" s="131"/>
-      <c r="AS42" s="131"/>
-      <c r="AT42" s="131"/>
-      <c r="AU42" s="131"/>
-      <c r="AV42" s="131"/>
-      <c r="AW42" s="131"/>
-      <c r="AX42" s="131"/>
-      <c r="AY42" s="131"/>
-      <c r="AZ42" s="131"/>
-      <c r="BA42" s="131"/>
-      <c r="BB42" s="131"/>
-      <c r="BC42" s="131"/>
-      <c r="BD42" s="131"/>
-      <c r="BE42" s="131"/>
-      <c r="BF42" s="131"/>
-      <c r="BG42" s="131"/>
-      <c r="BH42" s="131"/>
-      <c r="BI42" s="131"/>
-      <c r="BJ42" s="131"/>
-      <c r="BK42" s="131"/>
-      <c r="BL42" s="131"/>
-      <c r="BM42" s="131"/>
+      <c r="G42" s="112">
+        <v>1</v>
+      </c>
+      <c r="H42" s="71"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
+      <c r="Y42" s="91"/>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="91"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="91"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="91"/>
+      <c r="AJ42" s="91"/>
+      <c r="AK42" s="91"/>
+      <c r="AL42" s="91"/>
+      <c r="AM42" s="91"/>
+      <c r="AN42" s="91"/>
+      <c r="AO42" s="91"/>
+      <c r="AP42" s="91"/>
+      <c r="AQ42" s="91"/>
+      <c r="AR42" s="91"/>
+      <c r="AS42" s="91"/>
+      <c r="AT42" s="91"/>
+      <c r="AU42" s="91"/>
+      <c r="AV42" s="91"/>
+      <c r="AW42" s="91"/>
+      <c r="AX42" s="91"/>
+      <c r="AY42" s="91"/>
+      <c r="AZ42" s="91"/>
+      <c r="BA42" s="91"/>
+      <c r="BB42" s="91"/>
+      <c r="BC42" s="91"/>
+      <c r="BD42" s="91"/>
+      <c r="BE42" s="91"/>
+      <c r="BF42" s="91"/>
+      <c r="BG42" s="91"/>
+      <c r="BH42" s="91"/>
+      <c r="BI42" s="91"/>
+      <c r="BJ42" s="91"/>
+      <c r="BK42" s="91"/>
+      <c r="BL42" s="91"/>
+      <c r="BM42" s="91"/>
     </row>
     <row r="43" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A43" s="72" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B43" s="105" t="s">
-        <v>121</v>
+      <c r="B43" s="104" t="s">
+        <v>115</v>
       </c>
       <c r="C43" s="66"/>
       <c r="D43" s="67"/>
       <c r="E43" s="68"/>
       <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
+      <c r="G43" s="70">
+        <v>1</v>
+      </c>
       <c r="H43" s="71"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="99"/>
-      <c r="Y43" s="92"/>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="92"/>
-      <c r="AB43" s="92"/>
-      <c r="AC43" s="92"/>
-      <c r="AD43" s="92"/>
-      <c r="AE43" s="92"/>
-      <c r="AF43" s="92"/>
-      <c r="AG43" s="92"/>
-      <c r="AH43" s="92"/>
-      <c r="AI43" s="92"/>
-      <c r="AJ43" s="92"/>
-      <c r="AK43" s="92"/>
-      <c r="AL43" s="92"/>
-      <c r="AM43" s="92"/>
-      <c r="AN43" s="92"/>
-      <c r="AO43" s="92"/>
-      <c r="AP43" s="92"/>
-      <c r="AQ43" s="92"/>
-      <c r="AR43" s="92"/>
-      <c r="AS43" s="92"/>
-      <c r="AT43" s="92"/>
-      <c r="AU43" s="92"/>
-      <c r="AV43" s="92"/>
-      <c r="AW43" s="92"/>
-      <c r="AX43" s="92"/>
-      <c r="AY43" s="92"/>
-      <c r="AZ43" s="92"/>
-      <c r="BA43" s="92"/>
-      <c r="BB43" s="92"/>
-      <c r="BC43" s="92"/>
-      <c r="BD43" s="92"/>
-      <c r="BE43" s="92"/>
-      <c r="BF43" s="92"/>
-      <c r="BG43" s="92"/>
-      <c r="BH43" s="92"/>
-      <c r="BI43" s="92"/>
-      <c r="BJ43" s="92"/>
-      <c r="BK43" s="92"/>
-      <c r="BL43" s="92"/>
-      <c r="BM43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="91"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="91"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="91"/>
+      <c r="AA43" s="91"/>
+      <c r="AB43" s="91"/>
+      <c r="AC43" s="91"/>
+      <c r="AD43" s="91"/>
+      <c r="AE43" s="91"/>
+      <c r="AF43" s="91"/>
+      <c r="AG43" s="91"/>
+      <c r="AH43" s="91"/>
+      <c r="AI43" s="91"/>
+      <c r="AJ43" s="91"/>
+      <c r="AK43" s="91"/>
+      <c r="AL43" s="91"/>
+      <c r="AM43" s="91"/>
+      <c r="AN43" s="91"/>
+      <c r="AO43" s="91"/>
+      <c r="AP43" s="91"/>
+      <c r="AQ43" s="91"/>
+      <c r="AR43" s="91"/>
+      <c r="AS43" s="91"/>
+      <c r="AT43" s="91"/>
+      <c r="AU43" s="91"/>
+      <c r="AV43" s="91"/>
+      <c r="AW43" s="91"/>
+      <c r="AX43" s="91"/>
+      <c r="AY43" s="91"/>
+      <c r="AZ43" s="91"/>
+      <c r="BA43" s="91"/>
+      <c r="BB43" s="91"/>
+      <c r="BC43" s="91"/>
+      <c r="BD43" s="91"/>
+      <c r="BE43" s="91"/>
+      <c r="BF43" s="91"/>
+      <c r="BG43" s="91"/>
+      <c r="BH43" s="91"/>
+      <c r="BI43" s="91"/>
+      <c r="BJ43" s="91"/>
+      <c r="BK43" s="91"/>
+      <c r="BL43" s="91"/>
+      <c r="BM43" s="91"/>
     </row>
     <row r="44" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A44" s="64" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.1</v>
       </c>
-      <c r="B44" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="103" t="s">
-        <v>111</v>
+      <c r="B44" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>105</v>
       </c>
       <c r="D44" s="67">
         <v>45069</v>
@@ -6742,291 +6728,293 @@
         <v>2</v>
       </c>
       <c r="G44" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="71"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="92"/>
-      <c r="U44" s="92"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="99"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="92"/>
-      <c r="AB44" s="92"/>
-      <c r="AC44" s="92"/>
-      <c r="AD44" s="92"/>
-      <c r="AE44" s="92"/>
-      <c r="AF44" s="92"/>
-      <c r="AG44" s="92"/>
-      <c r="AH44" s="92"/>
-      <c r="AI44" s="92"/>
-      <c r="AJ44" s="92"/>
-      <c r="AK44" s="92"/>
-      <c r="AL44" s="92"/>
-      <c r="AM44" s="92"/>
-      <c r="AN44" s="92"/>
-      <c r="AO44" s="92"/>
-      <c r="AP44" s="92"/>
-      <c r="AQ44" s="92"/>
-      <c r="AR44" s="92"/>
-      <c r="AS44" s="92"/>
-      <c r="AT44" s="92"/>
-      <c r="AU44" s="92"/>
-      <c r="AV44" s="92"/>
-      <c r="AW44" s="92"/>
-      <c r="AX44" s="92"/>
-      <c r="AY44" s="92"/>
-      <c r="AZ44" s="92"/>
-      <c r="BA44" s="92"/>
-      <c r="BB44" s="92"/>
-      <c r="BC44" s="92"/>
-      <c r="BD44" s="92"/>
-      <c r="BE44" s="92"/>
-      <c r="BF44" s="92"/>
-      <c r="BG44" s="92"/>
-      <c r="BH44" s="92"/>
-      <c r="BI44" s="92"/>
-      <c r="BJ44" s="92"/>
-      <c r="BK44" s="92"/>
-      <c r="BL44" s="92"/>
-      <c r="BM44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="91"/>
+      <c r="W44" s="91"/>
+      <c r="X44" s="98"/>
+      <c r="Y44" s="91"/>
+      <c r="Z44" s="91"/>
+      <c r="AA44" s="91"/>
+      <c r="AB44" s="91"/>
+      <c r="AC44" s="91"/>
+      <c r="AD44" s="91"/>
+      <c r="AE44" s="91"/>
+      <c r="AF44" s="91"/>
+      <c r="AG44" s="91"/>
+      <c r="AH44" s="91"/>
+      <c r="AI44" s="91"/>
+      <c r="AJ44" s="91"/>
+      <c r="AK44" s="91"/>
+      <c r="AL44" s="91"/>
+      <c r="AM44" s="91"/>
+      <c r="AN44" s="91"/>
+      <c r="AO44" s="91"/>
+      <c r="AP44" s="91"/>
+      <c r="AQ44" s="91"/>
+      <c r="AR44" s="91"/>
+      <c r="AS44" s="91"/>
+      <c r="AT44" s="91"/>
+      <c r="AU44" s="91"/>
+      <c r="AV44" s="91"/>
+      <c r="AW44" s="91"/>
+      <c r="AX44" s="91"/>
+      <c r="AY44" s="91"/>
+      <c r="AZ44" s="91"/>
+      <c r="BA44" s="91"/>
+      <c r="BB44" s="91"/>
+      <c r="BC44" s="91"/>
+      <c r="BD44" s="91"/>
+      <c r="BE44" s="91"/>
+      <c r="BF44" s="91"/>
+      <c r="BG44" s="91"/>
+      <c r="BH44" s="91"/>
+      <c r="BI44" s="91"/>
+      <c r="BJ44" s="91"/>
+      <c r="BK44" s="91"/>
+      <c r="BL44" s="91"/>
+      <c r="BM44" s="91"/>
     </row>
     <row r="45" spans="1:65" s="37" customFormat="1" ht="17">
       <c r="A45" s="72" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>7</v>
       </c>
-      <c r="B45" s="105" t="s">
-        <v>120</v>
+      <c r="B45" s="104" t="s">
+        <v>114</v>
       </c>
       <c r="C45" s="66"/>
       <c r="D45" s="67"/>
       <c r="E45" s="68"/>
       <c r="F45" s="69"/>
-      <c r="G45" s="70"/>
+      <c r="G45" s="70">
+        <v>1</v>
+      </c>
       <c r="H45" s="71"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="92"/>
-      <c r="AB45" s="92"/>
-      <c r="AC45" s="92"/>
-      <c r="AD45" s="92"/>
-      <c r="AE45" s="92"/>
-      <c r="AF45" s="92"/>
-      <c r="AG45" s="92"/>
-      <c r="AH45" s="92"/>
-      <c r="AI45" s="92"/>
-      <c r="AJ45" s="92"/>
-      <c r="AK45" s="92"/>
-      <c r="AL45" s="92"/>
-      <c r="AM45" s="92"/>
-      <c r="AN45" s="92"/>
-      <c r="AO45" s="92"/>
-      <c r="AP45" s="92"/>
-      <c r="AQ45" s="92"/>
-      <c r="AR45" s="92"/>
-      <c r="AS45" s="92"/>
-      <c r="AT45" s="92"/>
-      <c r="AU45" s="92"/>
-      <c r="AV45" s="92"/>
-      <c r="AW45" s="92"/>
-      <c r="AX45" s="92"/>
-      <c r="AY45" s="92"/>
-      <c r="AZ45" s="92"/>
-      <c r="BA45" s="92"/>
-      <c r="BB45" s="92"/>
-      <c r="BC45" s="92"/>
-      <c r="BD45" s="92"/>
-      <c r="BE45" s="92"/>
-      <c r="BF45" s="92"/>
-      <c r="BG45" s="92"/>
-      <c r="BH45" s="92"/>
-      <c r="BI45" s="92"/>
-      <c r="BJ45" s="92"/>
-      <c r="BK45" s="92"/>
-      <c r="BL45" s="92"/>
-      <c r="BM45" s="92"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="91"/>
+      <c r="S45" s="91"/>
+      <c r="T45" s="91"/>
+      <c r="U45" s="91"/>
+      <c r="V45" s="91"/>
+      <c r="W45" s="91"/>
+      <c r="X45" s="98"/>
+      <c r="Y45" s="91"/>
+      <c r="Z45" s="91"/>
+      <c r="AA45" s="91"/>
+      <c r="AB45" s="91"/>
+      <c r="AC45" s="91"/>
+      <c r="AD45" s="91"/>
+      <c r="AE45" s="91"/>
+      <c r="AF45" s="91"/>
+      <c r="AG45" s="91"/>
+      <c r="AH45" s="91"/>
+      <c r="AI45" s="91"/>
+      <c r="AJ45" s="91"/>
+      <c r="AK45" s="91"/>
+      <c r="AL45" s="91"/>
+      <c r="AM45" s="91"/>
+      <c r="AN45" s="91"/>
+      <c r="AO45" s="91"/>
+      <c r="AP45" s="91"/>
+      <c r="AQ45" s="91"/>
+      <c r="AR45" s="91"/>
+      <c r="AS45" s="91"/>
+      <c r="AT45" s="91"/>
+      <c r="AU45" s="91"/>
+      <c r="AV45" s="91"/>
+      <c r="AW45" s="91"/>
+      <c r="AX45" s="91"/>
+      <c r="AY45" s="91"/>
+      <c r="AZ45" s="91"/>
+      <c r="BA45" s="91"/>
+      <c r="BB45" s="91"/>
+      <c r="BC45" s="91"/>
+      <c r="BD45" s="91"/>
+      <c r="BE45" s="91"/>
+      <c r="BF45" s="91"/>
+      <c r="BG45" s="91"/>
+      <c r="BH45" s="91"/>
+      <c r="BI45" s="91"/>
+      <c r="BJ45" s="91"/>
+      <c r="BK45" s="91"/>
+      <c r="BL45" s="91"/>
+      <c r="BM45" s="91"/>
     </row>
     <row r="46" spans="1:65" s="37" customFormat="1" ht="17">
-      <c r="A46" s="107" t="str">
+      <c r="A46" s="106" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
-      <c r="B46" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="115" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="110">
+      <c r="B46" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="109">
         <v>45071</v>
       </c>
-      <c r="E46" s="111">
+      <c r="E46" s="110">
         <f>IF(ISBLANK(D46)," - ",IF(F46=0,D46,D46+F46-1))</f>
         <v>45077</v>
       </c>
-      <c r="F46" s="112">
+      <c r="F46" s="111">
         <v>7</v>
       </c>
-      <c r="G46" s="113">
-        <v>0</v>
-      </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="92"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="99"/>
-      <c r="Y46" s="92"/>
-      <c r="Z46" s="92"/>
-      <c r="AA46" s="92"/>
-      <c r="AB46" s="92"/>
-      <c r="AC46" s="92"/>
-      <c r="AD46" s="92"/>
-      <c r="AE46" s="92"/>
-      <c r="AF46" s="92"/>
-      <c r="AG46" s="92"/>
-      <c r="AH46" s="92"/>
-      <c r="AI46" s="92"/>
-      <c r="AJ46" s="92"/>
-      <c r="AK46" s="92"/>
-      <c r="AL46" s="92"/>
-      <c r="AM46" s="92"/>
-      <c r="AN46" s="92"/>
-      <c r="AO46" s="92"/>
-      <c r="AP46" s="92"/>
-      <c r="AQ46" s="92"/>
-      <c r="AR46" s="92"/>
-      <c r="AS46" s="92"/>
-      <c r="AT46" s="92"/>
-      <c r="AU46" s="92"/>
-      <c r="AV46" s="92"/>
-      <c r="AW46" s="92"/>
-      <c r="AX46" s="92"/>
-      <c r="AY46" s="92"/>
-      <c r="AZ46" s="92"/>
-      <c r="BA46" s="92"/>
-      <c r="BB46" s="92"/>
-      <c r="BC46" s="92"/>
-      <c r="BD46" s="92"/>
-      <c r="BE46" s="92"/>
-      <c r="BF46" s="92"/>
-      <c r="BG46" s="92"/>
-      <c r="BH46" s="92"/>
-      <c r="BI46" s="92"/>
-      <c r="BJ46" s="92"/>
-      <c r="BK46" s="92"/>
-      <c r="BL46" s="92"/>
-      <c r="BM46" s="92"/>
+      <c r="G46" s="112">
+        <v>1</v>
+      </c>
+      <c r="H46" s="78"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="91"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="91"/>
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="91"/>
+      <c r="X46" s="98"/>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="91"/>
+      <c r="AA46" s="91"/>
+      <c r="AB46" s="91"/>
+      <c r="AC46" s="91"/>
+      <c r="AD46" s="91"/>
+      <c r="AE46" s="91"/>
+      <c r="AF46" s="91"/>
+      <c r="AG46" s="91"/>
+      <c r="AH46" s="91"/>
+      <c r="AI46" s="91"/>
+      <c r="AJ46" s="91"/>
+      <c r="AK46" s="91"/>
+      <c r="AL46" s="91"/>
+      <c r="AM46" s="91"/>
+      <c r="AN46" s="91"/>
+      <c r="AO46" s="91"/>
+      <c r="AP46" s="91"/>
+      <c r="AQ46" s="91"/>
+      <c r="AR46" s="91"/>
+      <c r="AS46" s="91"/>
+      <c r="AT46" s="91"/>
+      <c r="AU46" s="91"/>
+      <c r="AV46" s="91"/>
+      <c r="AW46" s="91"/>
+      <c r="AX46" s="91"/>
+      <c r="AY46" s="91"/>
+      <c r="AZ46" s="91"/>
+      <c r="BA46" s="91"/>
+      <c r="BB46" s="91"/>
+      <c r="BC46" s="91"/>
+      <c r="BD46" s="91"/>
+      <c r="BE46" s="91"/>
+      <c r="BF46" s="91"/>
+      <c r="BG46" s="91"/>
+      <c r="BH46" s="91"/>
+      <c r="BI46" s="91"/>
+      <c r="BJ46" s="91"/>
+      <c r="BK46" s="91"/>
+      <c r="BL46" s="91"/>
+      <c r="BM46" s="91"/>
     </row>
     <row r="47" spans="1:65" s="37" customFormat="1" ht="17">
-      <c r="A47" s="74"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="99"/>
-      <c r="Y47" s="92"/>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="92"/>
-      <c r="AB47" s="92"/>
-      <c r="AC47" s="92"/>
-      <c r="AD47" s="92"/>
-      <c r="AE47" s="92"/>
-      <c r="AF47" s="92"/>
-      <c r="AG47" s="92"/>
-      <c r="AH47" s="92"/>
-      <c r="AI47" s="92"/>
-      <c r="AJ47" s="92"/>
-      <c r="AK47" s="92"/>
-      <c r="AL47" s="92"/>
-      <c r="AM47" s="92"/>
-      <c r="AN47" s="92"/>
-      <c r="AO47" s="92"/>
-      <c r="AP47" s="92"/>
-      <c r="AQ47" s="92"/>
-      <c r="AR47" s="92"/>
-      <c r="AS47" s="92"/>
-      <c r="AT47" s="92"/>
-      <c r="AU47" s="92"/>
-      <c r="AV47" s="92"/>
-      <c r="AW47" s="92"/>
-      <c r="AX47" s="92"/>
-      <c r="AY47" s="92"/>
-      <c r="AZ47" s="92"/>
-      <c r="BA47" s="92"/>
-      <c r="BB47" s="92"/>
-      <c r="BC47" s="92"/>
-      <c r="BD47" s="92"/>
-      <c r="BE47" s="92"/>
-      <c r="BF47" s="92"/>
-      <c r="BG47" s="92"/>
-      <c r="BH47" s="92"/>
-      <c r="BI47" s="92"/>
-      <c r="BJ47" s="92"/>
-      <c r="BK47" s="92"/>
-      <c r="BL47" s="92"/>
-      <c r="BM47" s="92"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="91"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="91"/>
+      <c r="R47" s="91"/>
+      <c r="S47" s="91"/>
+      <c r="T47" s="91"/>
+      <c r="U47" s="91"/>
+      <c r="V47" s="91"/>
+      <c r="W47" s="91"/>
+      <c r="X47" s="98"/>
+      <c r="Y47" s="91"/>
+      <c r="Z47" s="91"/>
+      <c r="AA47" s="91"/>
+      <c r="AB47" s="91"/>
+      <c r="AC47" s="91"/>
+      <c r="AD47" s="91"/>
+      <c r="AE47" s="91"/>
+      <c r="AF47" s="91"/>
+      <c r="AG47" s="91"/>
+      <c r="AH47" s="91"/>
+      <c r="AI47" s="91"/>
+      <c r="AJ47" s="91"/>
+      <c r="AK47" s="91"/>
+      <c r="AL47" s="91"/>
+      <c r="AM47" s="91"/>
+      <c r="AN47" s="91"/>
+      <c r="AO47" s="91"/>
+      <c r="AP47" s="91"/>
+      <c r="AQ47" s="91"/>
+      <c r="AR47" s="91"/>
+      <c r="AS47" s="91"/>
+      <c r="AT47" s="91"/>
+      <c r="AU47" s="91"/>
+      <c r="AV47" s="91"/>
+      <c r="AW47" s="91"/>
+      <c r="AX47" s="91"/>
+      <c r="AY47" s="91"/>
+      <c r="AZ47" s="91"/>
+      <c r="BA47" s="91"/>
+      <c r="BB47" s="91"/>
+      <c r="BC47" s="91"/>
+      <c r="BD47" s="91"/>
+      <c r="BE47" s="91"/>
+      <c r="BF47" s="91"/>
+      <c r="BG47" s="91"/>
+      <c r="BH47" s="91"/>
+      <c r="BI47" s="91"/>
+      <c r="BJ47" s="91"/>
+      <c r="BK47" s="91"/>
+      <c r="BL47" s="91"/>
+      <c r="BM47" s="91"/>
     </row>
     <row r="48" spans="1:65" s="38" customFormat="1" ht="19.5" customHeight="1">
-      <c r="X48" s="100"/>
+      <c r="X48" s="99"/>
     </row>
     <row r="49" ht="19.5" customHeight="1"/>
     <row r="50" ht="19.5" customHeight="1"/>
@@ -7180,13 +7168,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="14">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -7195,40 +7183,40 @@
     </row>
     <row r="4" spans="1:4" ht="18">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14">
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="126" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="126"/>
+      <c r="A13" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="128"/>
     </row>
     <row r="15" spans="1:4" ht="18">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -7236,7 +7224,7 @@
     <row r="16" spans="1:4" ht="18">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -7244,31 +7232,31 @@
     <row r="17" spans="1:2" ht="18">
       <c r="A17" s="12"/>
       <c r="B17" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
       <c r="A18" s="12"/>
       <c r="B18" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="12"/>
       <c r="B19" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18">
       <c r="A20" s="12"/>
       <c r="B20" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
@@ -7276,15 +7264,15 @@
       <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:2" ht="18">
-      <c r="A23" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="126"/>
+      <c r="A23" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="128"/>
     </row>
     <row r="24" spans="1:2" ht="45">
       <c r="A24" s="12"/>
       <c r="B24" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18">
@@ -7294,19 +7282,19 @@
     <row r="26" spans="1:2" ht="18">
       <c r="A26" s="12"/>
       <c r="B26" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18">
       <c r="A27" s="12"/>
       <c r="B27" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="12"/>
       <c r="B28" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18">
@@ -7316,19 +7304,19 @@
     <row r="30" spans="1:2" ht="18">
       <c r="A30" s="12"/>
       <c r="B30" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18">
       <c r="A31" s="12"/>
       <c r="B31" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18">
       <c r="A32" s="12"/>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18">
@@ -7338,13 +7326,13 @@
     <row r="34" spans="1:2" ht="30">
       <c r="A34" s="12"/>
       <c r="B34" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18">
       <c r="A35" s="12"/>
       <c r="B35" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18">
@@ -7352,29 +7340,29 @@
       <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:2" ht="18">
-      <c r="A37" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="126"/>
+      <c r="A37" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="128"/>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="B38" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="B40" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="B42" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="B44" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7382,136 +7370,136 @@
     </row>
     <row r="46" spans="1:2" ht="30">
       <c r="B46" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18">
-      <c r="A48" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="126"/>
+      <c r="A48" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="128"/>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="B49" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="8"/>
       <c r="B54" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="8"/>
       <c r="B55" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="8"/>
       <c r="B57" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="8"/>
       <c r="B58" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="8"/>
       <c r="B60" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15">
       <c r="A61" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15">
       <c r="A62" s="19"/>
       <c r="B62" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2" ht="18">
-      <c r="A64" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="126"/>
+      <c r="A64" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="128"/>
     </row>
     <row r="65" spans="1:2" ht="45">
       <c r="B65" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18">
-      <c r="A67" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="126"/>
+      <c r="A67" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="128"/>
     </row>
     <row r="68" spans="1:2" ht="15">
       <c r="A68" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
       <c r="A69" s="19"/>
       <c r="B69" s="23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14">
@@ -7520,16 +7508,16 @@
     </row>
     <row r="71" spans="1:2" ht="15">
       <c r="A71" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30">
       <c r="A72" s="19"/>
       <c r="B72" s="23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14">
@@ -7538,16 +7526,16 @@
     </row>
     <row r="74" spans="1:2" ht="14">
       <c r="A74" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
       <c r="A75" s="19"/>
       <c r="B75" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14">
@@ -7556,16 +7544,16 @@
     </row>
     <row r="77" spans="1:2" ht="14">
       <c r="A77" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
       <c r="A78" s="19"/>
       <c r="B78" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14">
@@ -7574,28 +7562,28 @@
     </row>
     <row r="80" spans="1:2" ht="14">
       <c r="A80" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
       <c r="A81" s="19"/>
       <c r="B81" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
       <c r="A82" s="19"/>
       <c r="B82" s="26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
       <c r="A83" s="19"/>
       <c r="B83" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14">
@@ -7604,28 +7592,28 @@
     </row>
     <row r="85" spans="1:2" ht="14">
       <c r="A85" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="45">
       <c r="A86" s="19"/>
       <c r="B86" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15">
       <c r="A87" s="19"/>
-      <c r="B87" s="101" t="s">
-        <v>106</v>
+      <c r="B87" s="100" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="45">
       <c r="A88" s="19"/>
-      <c r="B88" s="102" t="s">
-        <v>107</v>
+      <c r="B88" s="101" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14">
@@ -7634,21 +7622,21 @@
     </row>
     <row r="90" spans="1:2" ht="14">
       <c r="A90" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
       <c r="A91" s="8"/>
       <c r="B91" s="26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
